--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -178,19 +178,19 @@
     <t>unity</t>
   </si>
   <si>
-    <t>Hero_101</t>
-  </si>
-  <si>
-    <t>Prefabs/Characters</t>
-  </si>
-  <si>
-    <t>Hero_102</t>
-  </si>
-  <si>
-    <t>Hero_103</t>
-  </si>
-  <si>
-    <t>Hero_104</t>
+    <t>shangguanling_battle_001</t>
+  </si>
+  <si>
+    <t>Prefabs/Models/Role</t>
+  </si>
+  <si>
+    <t>shangguanling_battle_002</t>
+  </si>
+  <si>
+    <t>shangguanling_battle_003</t>
+  </si>
+  <si>
+    <t>shangguanling_battle_004</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +321,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,44 +329,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,14 +342,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -310,37 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -349,19 +357,11 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -382,31 +382,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,43 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,91 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,35 +576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,26 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -655,6 +611,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +653,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -681,145 +681,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1193,13 +1193,13 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="46.375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -166,16 +166,22 @@
     <t>Prefabs/Effects</t>
   </si>
   <si>
-    <t>BuffEffect</t>
-  </si>
-  <si>
-    <t>lobby_scene_001</t>
-  </si>
-  <si>
-    <t>Scenes</t>
-  </si>
-  <si>
-    <t>unity</t>
+    <t>eft_normal_attack_projectile_001</t>
+  </si>
+  <si>
+    <t>eft_skill_projectile_001</t>
+  </si>
+  <si>
+    <t>eft_skill_cal_001</t>
+  </si>
+  <si>
+    <t>eft_skill_cal_002</t>
+  </si>
+  <si>
+    <t>battle_scene_001</t>
+  </si>
+  <si>
+    <t>Prefabs/Scene</t>
   </si>
   <si>
     <t>shangguanling_battle_001</t>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t>shangguanling_battle_004</t>
+  </si>
+  <si>
+    <t>monster1_battle</t>
   </si>
 </sst>
 </file>
@@ -199,8 +208,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -213,7 +222,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,13 +282,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,28 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -271,9 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,10 +319,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,6 +334,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -312,51 +366,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -382,12 +391,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,13 +469,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,145 +559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,8 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +605,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,21 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -656,15 +659,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -673,6 +667,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -681,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,16 +1199,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
     <col min="4" max="4" width="46.375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
@@ -1506,11 +1515,25 @@
       </c>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="3:7">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+    <row r="17" ht="17" customHeight="1" spans="1:7">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>15008003</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:7">
@@ -1518,90 +1541,76 @@
         <v>0</v>
       </c>
       <c r="B18">
+        <v>15008004</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:7">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>15008005</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="3:7">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="1:7">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
         <v>15010001</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" ht="17" customHeight="1" spans="3:7">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>15011001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>15011002</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>15011003</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
+    <row r="22" ht="17" customHeight="1" spans="3:7">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
@@ -1609,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>15011004</v>
+        <v>15011001</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -1624,6 +1633,90 @@
         <v>6</v>
       </c>
       <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>15011002</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>15011003</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>15011004</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>15012001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1639,7 +1732,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1656,7 +1749,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -222,6 +222,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -229,7 +251,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,45 +296,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,26 +326,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,21 +351,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -349,17 +358,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,187 +391,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,11 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,17 +624,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +638,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,21 +682,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -690,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>png</t>
+  </si>
+  <si>
+    <t>item0</t>
+  </si>
+  <si>
+    <t>Textures/Item</t>
   </si>
   <si>
     <t>click</t>
@@ -208,9 +214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -221,10 +227,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,24 +289,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,16 +303,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,33 +334,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,35 +357,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -370,11 +381,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -391,25 +397,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,157 +565,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,17 +591,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,44 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,6 +664,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -690,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +708,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1199,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1438,60 +1444,60 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="3:7">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+    <row r="12" ht="15" customHeight="1" spans="1:7">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>15002001</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:7">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+    <row r="13" ht="15" customHeight="1" spans="3:7">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:7">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
         <v>15006001</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="2">
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2">
         <v>3</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="3:7">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:7">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>15008001</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4</v>
-      </c>
+    <row r="15" ht="17" customHeight="1" spans="3:7">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:7">
@@ -1499,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>15008002</v>
+        <v>15008001</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
@@ -1520,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>15008003</v>
+        <v>15008002</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1541,13 +1547,13 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>15008004</v>
+        <v>15008003</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
@@ -1562,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>15008005</v>
+        <v>15008004</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
@@ -1578,60 +1584,60 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="3:7">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+    <row r="20" ht="17" customHeight="1" spans="1:7">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>15008005</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:7">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
+    <row r="21" ht="17" customHeight="1" spans="3:7">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="1:7">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
         <v>15010001</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" ht="17" customHeight="1" spans="3:7">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>15011001</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
+    <row r="23" ht="17" customHeight="1" spans="3:7">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
@@ -1639,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>15011002</v>
+        <v>15011001</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1660,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>15011003</v>
+        <v>15011002</v>
       </c>
       <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1681,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>15011004</v>
+        <v>15011003</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1697,26 +1703,47 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>15011004</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
         <v>15012001</v>
       </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
   <si>
     <t>#</t>
   </si>
@@ -106,7 +106,7 @@
     <t>LoginUI</t>
   </si>
   <si>
-    <t>Prefabs/UI/LoginUI</t>
+    <t>Prefabs/UI</t>
   </si>
   <si>
     <t>prefab</t>
@@ -115,31 +115,40 @@
     <t>LobbyUI</t>
   </si>
   <si>
-    <t>Prefabs/UI/LobbyUI</t>
-  </si>
-  <si>
     <t>HeroListUI</t>
   </si>
   <si>
-    <t>Prefabs/UI/HeroListUI</t>
-  </si>
-  <si>
-    <t>MateMainUI</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/MateUI</t>
-  </si>
-  <si>
-    <t>CombatUI</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/CombatUI</t>
+    <t>BattleUI</t>
   </si>
   <si>
     <t>LoadingUI</t>
   </si>
   <si>
-    <t>Prefabs/UI/LoadingUI</t>
+    <t>HeroInfoUI</t>
+  </si>
+  <si>
+    <t>ConfirmUI</t>
+  </si>
+  <si>
+    <t>MainTaskUI</t>
+  </si>
+  <si>
+    <t>MainTaskStageUI</t>
+  </si>
+  <si>
+    <t>BattleResultUI</t>
+  </si>
+  <si>
+    <t>TitleBarUI</t>
+  </si>
+  <si>
+    <t>TeamRoomListUI</t>
+  </si>
+  <si>
+    <t>TeamRoomInfoUI</t>
+  </si>
+  <si>
+    <t>TipsUI</t>
   </si>
   <si>
     <t>hero_100</t>
@@ -213,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -224,6 +233,50 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,6 +288,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -243,68 +327,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +351,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,57 +366,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -403,49 +412,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,43 +526,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,73 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,24 +597,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,28 +630,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,6 +663,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -688,6 +686,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -696,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,16 +717,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,115 +735,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1205,10 +1214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1322,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1340,10 +1349,10 @@
         <v>15000003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1361,10 +1370,10 @@
         <v>15000004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1382,10 +1391,10 @@
         <v>15000005</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1403,10 +1412,10 @@
         <v>15000006</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1416,11 +1425,25 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="10" ht="15" customHeight="1" spans="1:7">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>15000007</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:7">
@@ -1428,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>15001001</v>
+        <v>15000008</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -1449,163 +1472,177 @@
         <v>0</v>
       </c>
       <c r="B12">
+        <v>15000009</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>15000010</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:7">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>15000011</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>15000012</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:7">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15000013</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>15000014</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="3:7">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>15001001</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:7">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
         <v>15002001</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="3:7">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="1:7">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>15006001</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" ht="17" customHeight="1" spans="3:7">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" ht="17" customHeight="1" spans="1:7">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>15008001</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" ht="17" customHeight="1" spans="1:7">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>15008002</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" ht="17" customHeight="1" spans="1:7">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>15008003</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" ht="17" customHeight="1" spans="1:7">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>15008004</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" ht="17" customHeight="1" spans="1:7">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>15008005</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4</v>
-      </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="3:7">
+    <row r="21" ht="15" customHeight="1" spans="3:7">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1617,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>15010001</v>
+        <v>15006001</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1640,110 +1677,250 @@
       <c r="F23" s="2"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" ht="17" customHeight="1" spans="1:7">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24">
+        <v>15008001</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="17" customHeight="1" spans="1:7">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>15008002</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" ht="17" customHeight="1" spans="1:7">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>15008003</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" ht="17" customHeight="1" spans="1:7">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>15008004</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" ht="17" customHeight="1" spans="1:7">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>15008005</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" ht="17" customHeight="1" spans="3:7">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" ht="17" customHeight="1" spans="1:7">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>15010001</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="17" customHeight="1" spans="3:7">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
         <v>15011001</v>
       </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24">
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
         <v>15011002</v>
       </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25">
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
         <v>15011003</v>
       </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26">
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
         <v>15011004</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
         <v>49</v>
       </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27">
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
         <v>15012001</v>
       </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29">
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37">
         <v>6</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G37" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Prefabs/Effects</t>
   </si>
   <si>
-    <t>eft_normal_attack_projectile_001</t>
+    <t>eft_buff_fire_follow</t>
   </si>
   <si>
     <t>eft_skill_projectile_001</t>
@@ -193,12 +193,54 @@
     <t>eft_skill_cal_002</t>
   </si>
   <si>
+    <t>eft_hit_001</t>
+  </si>
+  <si>
+    <t>eft_arrow_001</t>
+  </si>
+  <si>
+    <t>eft_ring_dart_001</t>
+  </si>
+  <si>
+    <t>eft_move_trail</t>
+  </si>
+  <si>
+    <t>eft_buff_lose_health_halo</t>
+  </si>
+  <si>
+    <t>eft_health_impact</t>
+  </si>
+  <si>
+    <t>eft_buff_gray_halo</t>
+  </si>
+  <si>
+    <t>eft_add_health</t>
+  </si>
+  <si>
+    <t>eft_stun_range</t>
+  </si>
+  <si>
+    <t>eft_stun_circle</t>
+  </si>
+  <si>
+    <t>eft_knife_light</t>
+  </si>
+  <si>
+    <t>eft_skill_director_001</t>
+  </si>
+  <si>
+    <t>eft_skill_director_002</t>
+  </si>
+  <si>
     <t>battle_scene_001</t>
   </si>
   <si>
     <t>Prefabs/Scene</t>
   </si>
   <si>
+    <t>scene_wuxia_002</t>
+  </si>
+  <si>
     <t>shangguanling_battle_001</t>
   </si>
   <si>
@@ -214,7 +256,13 @@
     <t>shangguanling_battle_004</t>
   </si>
   <si>
+    <t>tangyi_battle_003</t>
+  </si>
+  <si>
     <t>monster1_battle</t>
+  </si>
+  <si>
+    <t>daoba_battle_030</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1782,11 +1830,25 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="3:7">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+    <row r="29" ht="17" customHeight="1" spans="1:7">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>15008006</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" ht="17" customHeight="1" spans="1:7">
@@ -1794,133 +1856,539 @@
         <v>0</v>
       </c>
       <c r="B30">
+        <v>15008007</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="17" customHeight="1" spans="1:7">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>15008008</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" ht="17" customHeight="1" spans="1:7">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>15008009</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" ht="17" customHeight="1" spans="1:7">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>15008010</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" ht="17" customHeight="1" spans="1:7">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>15008011</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" ht="17" customHeight="1" spans="1:7">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>15008012</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" ht="17" customHeight="1" spans="1:7">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>15008013</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="2">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" ht="17" customHeight="1" spans="1:7">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>15008014</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" ht="17" customHeight="1" spans="1:7">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>15008015</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" ht="17" customHeight="1" spans="1:7">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>15008016</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" ht="17" customHeight="1" spans="3:7">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" ht="17" customHeight="1" spans="1:7">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>15008101</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" ht="17" customHeight="1" spans="1:7">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>15008102</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" ht="17" customHeight="1" spans="3:7">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" ht="17" customHeight="1" spans="3:7">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" ht="17" customHeight="1" spans="3:7">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" ht="17" customHeight="1" spans="3:7">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" ht="17" customHeight="1" spans="3:7">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" ht="17" customHeight="1" spans="3:7">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" ht="17" customHeight="1" spans="3:7">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" ht="17" customHeight="1" spans="3:7">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" ht="17" customHeight="1" spans="3:7">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" ht="17" customHeight="1" spans="3:7">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" ht="17" customHeight="1" spans="1:7">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
         <v>15010001</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="C53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="2">
         <v>5</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" ht="17" customHeight="1" spans="3:7">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" ht="17" customHeight="1" spans="1:7">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>15010002</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="2">
+        <v>5</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
         <v>15011001</v>
       </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32">
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56">
         <v>6</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
         <v>15011002</v>
       </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33">
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57">
         <v>6</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
         <v>15011003</v>
       </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34">
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58">
         <v>6</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
         <v>15011004</v>
       </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35">
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59">
         <v>6</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>15011021</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="7:7">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="7:7">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="7:7">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
         <v>15012001</v>
       </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37">
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68">
         <v>6</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>15013001</v>
+      </c>
+      <c r="C71" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -164,6 +164,24 @@
   </si>
   <si>
     <t>Textures/Item</t>
+  </si>
+  <si>
+    <t>cursor_001</t>
+  </si>
+  <si>
+    <t>Textures/Cursor</t>
+  </si>
+  <si>
+    <t>cursor_002</t>
+  </si>
+  <si>
+    <t>cursor_select_attack_001</t>
+  </si>
+  <si>
+    <t>cursor_normal_005</t>
+  </si>
+  <si>
+    <t>cursor_attack_001</t>
   </si>
   <si>
     <t>click</t>
@@ -1262,10 +1280,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1669,207 +1687,165 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:7">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
+    <row r="20" ht="15" customHeight="1" spans="3:7">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
         <v>15002001</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="3:7">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:7">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>15006001</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="22" ht="15" customHeight="1" spans="3:7">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>15003001</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:7">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>15003002</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" ht="17" customHeight="1" spans="3:7">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" ht="17" customHeight="1" spans="1:7">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>15008001</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>15003003</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:7">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>15003004</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2">
-        <v>4</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" ht="17" customHeight="1" spans="1:7">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>15008002</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>15003005</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" ht="17" customHeight="1" spans="1:7">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>15008003</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" ht="17" customHeight="1" spans="1:7">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>15008004</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:7">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>15008005</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="2">
-        <v>4</v>
-      </c>
+    <row r="28" ht="15" customHeight="1" spans="3:7">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:7">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>15008006</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="2">
-        <v>4</v>
-      </c>
+    <row r="29" ht="15" customHeight="1" spans="3:7">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:7">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>15008007</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="2">
-        <v>4</v>
-      </c>
+    <row r="30" ht="15" customHeight="1" spans="3:7">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" ht="17" customHeight="1" spans="1:7">
@@ -1877,41 +1853,27 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>15008008</v>
+        <v>15006001</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:7">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>15008009</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="2">
-        <v>4</v>
-      </c>
+    <row r="32" ht="17" customHeight="1" spans="3:7">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" ht="17" customHeight="1" spans="1:7">
@@ -1919,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>15008010</v>
+        <v>15008001</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>18</v>
@@ -1940,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>15008011</v>
+        <v>15008002</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>18</v>
@@ -1961,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>15008012</v>
+        <v>15008003</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>18</v>
@@ -1982,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>15008013</v>
+        <v>15008004</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>18</v>
@@ -2003,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>15008014</v>
+        <v>15008005</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>18</v>
@@ -2024,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>15008015</v>
+        <v>15008006</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>18</v>
@@ -2045,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>15008016</v>
+        <v>15008007</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>18</v>
@@ -2061,11 +2023,25 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="3:7">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+    <row r="40" ht="17" customHeight="1" spans="1:7">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>15008008</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4</v>
+      </c>
       <c r="G40" s="5"/>
     </row>
     <row r="41" ht="17" customHeight="1" spans="1:7">
@@ -2073,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>15008101</v>
+        <v>15008009</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>18</v>
@@ -2094,13 +2070,13 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>15008102</v>
+        <v>15008010</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>18</v>
@@ -2110,46 +2086,130 @@
       </c>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="3:7">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+    <row r="43" ht="17" customHeight="1" spans="1:7">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>15008011</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4</v>
+      </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="3:7">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+    <row r="44" ht="17" customHeight="1" spans="1:7">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>15008012</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4</v>
+      </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" ht="17" customHeight="1" spans="3:7">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+    <row r="45" ht="17" customHeight="1" spans="1:7">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>15008013</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" ht="17" customHeight="1" spans="3:7">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+    <row r="46" ht="17" customHeight="1" spans="1:7">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>15008014</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4</v>
+      </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" ht="17" customHeight="1" spans="3:7">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+    <row r="47" ht="17" customHeight="1" spans="1:7">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>15008015</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4</v>
+      </c>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" ht="17" customHeight="1" spans="3:7">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+    <row r="48" ht="17" customHeight="1" spans="1:7">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>15008016</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4</v>
+      </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" ht="17" customHeight="1" spans="3:7">
@@ -2159,18 +2219,46 @@
       <c r="F49" s="2"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" ht="17" customHeight="1" spans="3:7">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+    <row r="50" ht="17" customHeight="1" spans="1:7">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>15008101</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4</v>
+      </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" ht="17" customHeight="1" spans="3:7">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+    <row r="51" ht="17" customHeight="1" spans="1:7">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>15008102</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4</v>
+      </c>
       <c r="G51" s="5"/>
     </row>
     <row r="52" ht="17" customHeight="1" spans="3:7">
@@ -2180,172 +2268,175 @@
       <c r="F52" s="2"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" ht="17" customHeight="1" spans="1:7">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
+    <row r="53" ht="17" customHeight="1" spans="3:7">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" ht="17" customHeight="1" spans="3:7">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" ht="17" customHeight="1" spans="3:7">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" ht="17" customHeight="1" spans="3:7">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" ht="17" customHeight="1" spans="3:7">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" ht="17" customHeight="1" spans="3:7">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" ht="17" customHeight="1" spans="3:7">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" ht="17" customHeight="1" spans="3:7">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" ht="17" customHeight="1" spans="3:7">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" ht="17" customHeight="1" spans="1:7">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
         <v>15010001</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="C62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="2">
         <v>5</v>
       </c>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" ht="17" customHeight="1" spans="1:7">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" ht="17" customHeight="1" spans="1:7">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
         <v>15010002</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="C63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="2">
         <v>5</v>
       </c>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="7:7">
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>15011001</v>
-      </c>
-      <c r="C56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56">
-        <v>6</v>
-      </c>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>15011002</v>
-      </c>
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57">
-        <v>6</v>
-      </c>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>15011003</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58">
-        <v>6</v>
-      </c>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>15011004</v>
-      </c>
-      <c r="C59" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59">
-        <v>6</v>
-      </c>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61">
-        <v>15011021</v>
-      </c>
-      <c r="C61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61">
-        <v>6</v>
-      </c>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="7:7">
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="7:7">
       <c r="G63" s="5"/>
     </row>
     <row r="64" spans="7:7">
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="7:7">
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>15011001</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="7:7">
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>15011002</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="7:7">
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>15011003</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
       <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:7">
@@ -2353,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>15012001</v>
+        <v>15011004</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E68" t="s">
         <v>18</v>
@@ -2369,26 +2460,86 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71">
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>15011021</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="7:7">
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="7:7">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="7:7">
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="7:7">
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>15012001</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
         <v>15013001</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
         <v>69</v>
       </c>
-      <c r="D71" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71">
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
         <v>6</v>
       </c>
-      <c r="G71" s="5"/>
+      <c r="G80" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -21,7 +21,7 @@
     <author>Zxy</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="89">
   <si>
     <t>#</t>
   </si>
@@ -64,6 +64,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>des</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>资源名称</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>资源路径</t>
   </si>
   <si>
@@ -182,6 +188,39 @@
   </si>
   <si>
     <t>cursor_attack_001</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0014</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>Textures/Buff</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0022</t>
+  </si>
+  <si>
+    <t>击晕</t>
+  </si>
+  <si>
+    <t>icon_buff_common_08</t>
+  </si>
+  <si>
+    <t>减速</t>
+  </si>
+  <si>
+    <t>icon_buff_common_10</t>
+  </si>
+  <si>
+    <t>日炎</t>
+  </si>
+  <si>
+    <t>icon_buff_common_11</t>
+  </si>
+  <si>
+    <t>联盟的 vn w</t>
   </si>
   <si>
     <t>click</t>
@@ -1280,23 +1319,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="38.875" customWidth="1"/>
-    <col min="4" max="4" width="46.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="38.875" customWidth="1"/>
+    <col min="5" max="5" width="46.375" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1315,57 +1354,66 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1373,20 +1421,21 @@
         <v>15000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1394,20 +1443,21 @@
         <v>15000002</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1415,20 +1465,21 @@
         <v>15000003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1436,20 +1487,21 @@
         <v>15000004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1457,20 +1509,21 @@
         <v>15000005</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1478,20 +1531,21 @@
         <v>15000006</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:7">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:8">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1499,20 +1553,21 @@
         <v>15000007</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:8">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1520,20 +1575,21 @@
         <v>15000008</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:7">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1541,20 +1597,21 @@
         <v>15000009</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:8">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1562,20 +1619,21 @@
         <v>15000010</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:7">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:8">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1583,20 +1641,21 @@
         <v>15000011</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:8">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1604,20 +1663,21 @@
         <v>15000012</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:7">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:8">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1625,20 +1685,21 @@
         <v>15000013</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:8">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1646,27 +1707,29 @@
         <v>15000014</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="3:7">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="3:8">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="G18" s="2"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:8">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1674,27 +1737,29 @@
         <v>15001001</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="3:7">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="3:8">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="G20" s="2"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:8">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1702,27 +1767,29 @@
         <v>15002001</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="3:7">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="3:8">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="G22" s="2"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:8">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1730,20 +1797,21 @@
         <v>15003001</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="2">
+        <v>40</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:7">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:8">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1751,20 +1819,21 @@
         <v>15003002</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="2">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="2">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:8">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1772,20 +1841,21 @@
         <v>15003003</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:7">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:8">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1793,20 +1863,21 @@
         <v>15003004</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="2">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:8">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1814,732 +1885,889 @@
         <v>15003005</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="2">
+        <v>40</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="2">
         <v>2</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="3:7">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="3:8">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="3:7">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="3:7">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" ht="17" customHeight="1" spans="1:7">
+      <c r="G28" s="2"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:8">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>15003101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:8">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>15003102</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:8">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31">
+        <v>15003103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:8">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>15003104</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:8">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>15003105</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="3:8">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="3:8">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" ht="17" customHeight="1" spans="1:8">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
         <v>15006001</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="C37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="2">
         <v>3</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" ht="17" customHeight="1" spans="3:7">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" ht="17" customHeight="1" spans="1:7">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" ht="17" customHeight="1" spans="3:8">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" ht="17" customHeight="1" spans="1:8">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
         <v>15008001</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="C39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2">
         <v>4</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" ht="17" customHeight="1" spans="1:7">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" ht="17" customHeight="1" spans="1:8">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
         <v>15008002</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="C40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2">
         <v>4</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" ht="17" customHeight="1" spans="1:7">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" ht="17" customHeight="1" spans="1:8">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
         <v>15008003</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="C41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2">
         <v>4</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" ht="17" customHeight="1" spans="1:7">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" ht="17" customHeight="1" spans="1:8">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
         <v>15008004</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="C42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="2">
         <v>4</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" ht="17" customHeight="1" spans="1:7">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" ht="17" customHeight="1" spans="1:8">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
         <v>15008005</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="C43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="2">
         <v>4</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" ht="17" customHeight="1" spans="1:7">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" ht="17" customHeight="1" spans="1:8">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
         <v>15008006</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="C44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="2">
         <v>4</v>
       </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" ht="17" customHeight="1" spans="1:7">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" ht="17" customHeight="1" spans="1:8">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
         <v>15008007</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="C45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="2">
         <v>4</v>
       </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" ht="17" customHeight="1" spans="1:7">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" ht="17" customHeight="1" spans="1:8">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
         <v>15008008</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="C46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="2">
         <v>4</v>
       </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" ht="17" customHeight="1" spans="1:7">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" ht="17" customHeight="1" spans="1:8">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
         <v>15008009</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="C47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="2">
         <v>4</v>
       </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" ht="17" customHeight="1" spans="1:7">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" ht="17" customHeight="1" spans="1:8">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
         <v>15008010</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="C48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="2">
         <v>4</v>
       </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" ht="17" customHeight="1" spans="1:7">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43">
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" ht="17" customHeight="1" spans="1:8">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
         <v>15008011</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="C49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="2">
         <v>4</v>
       </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" ht="17" customHeight="1" spans="1:7">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" ht="17" customHeight="1" spans="1:8">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
         <v>15008012</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="C50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="2">
         <v>4</v>
       </c>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" ht="17" customHeight="1" spans="1:7">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" ht="17" customHeight="1" spans="1:8">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
         <v>15008013</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="C51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="2">
         <v>4</v>
       </c>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" ht="17" customHeight="1" spans="1:7">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46">
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" ht="17" customHeight="1" spans="1:8">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
         <v>15008014</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="F52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="2">
         <v>4</v>
       </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" ht="17" customHeight="1" spans="1:7">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47">
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" ht="17" customHeight="1" spans="1:8">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
         <v>15008015</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="C53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="2">
         <v>4</v>
       </c>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" ht="17" customHeight="1" spans="1:7">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48">
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" ht="17" customHeight="1" spans="1:8">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
         <v>15008016</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="C54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="2">
         <v>4</v>
       </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" ht="17" customHeight="1" spans="3:7">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" ht="17" customHeight="1" spans="1:7">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50">
-        <v>15008101</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="2">
-        <v>4</v>
-      </c>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" ht="17" customHeight="1" spans="1:7">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51">
-        <v>15008102</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="2">
-        <v>4</v>
-      </c>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" ht="17" customHeight="1" spans="3:7">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" ht="17" customHeight="1" spans="3:7">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" ht="17" customHeight="1" spans="3:7">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" ht="17" customHeight="1" spans="3:7">
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" ht="17" customHeight="1" spans="3:8">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" ht="17" customHeight="1" spans="3:7">
-      <c r="C56" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" ht="17" customHeight="1" spans="1:8">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>15008101</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" ht="17" customHeight="1" spans="3:7">
-      <c r="C57" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="2">
+        <v>4</v>
+      </c>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" ht="17" customHeight="1" spans="1:8">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>15008102</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" ht="17" customHeight="1" spans="3:7">
+      <c r="E57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="2">
+        <v>4</v>
+      </c>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" ht="17" customHeight="1" spans="3:8">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" ht="17" customHeight="1" spans="3:7">
+      <c r="G58" s="2"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" ht="17" customHeight="1" spans="3:8">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" ht="17" customHeight="1" spans="3:7">
+      <c r="G59" s="2"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" ht="17" customHeight="1" spans="3:8">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" ht="17" customHeight="1" spans="3:7">
+      <c r="G60" s="2"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" ht="17" customHeight="1" spans="3:8">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" ht="17" customHeight="1" spans="1:7">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62">
+      <c r="G61" s="2"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" ht="17" customHeight="1" spans="3:8">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" ht="17" customHeight="1" spans="3:8">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" ht="17" customHeight="1" spans="3:8">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" ht="17" customHeight="1" spans="3:8">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" ht="17" customHeight="1" spans="3:8">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" ht="17" customHeight="1" spans="3:8">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" ht="17" customHeight="1" spans="1:8">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
         <v>15010001</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="C68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="2">
         <v>5</v>
       </c>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" ht="17" customHeight="1" spans="1:7">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63">
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" ht="17" customHeight="1" spans="1:8">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
         <v>15010002</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="C69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="2">
         <v>5</v>
       </c>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="7:7">
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65">
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="8:8">
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
         <v>15011001</v>
       </c>
-      <c r="C65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65">
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71">
         <v>6</v>
       </c>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66">
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
         <v>15011002</v>
       </c>
-      <c r="C66" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66">
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72">
         <v>6</v>
       </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67">
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
         <v>15011003</v>
       </c>
-      <c r="C67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67">
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73">
         <v>6</v>
       </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68">
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
         <v>15011004</v>
       </c>
-      <c r="C68" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68">
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74">
         <v>6</v>
       </c>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70">
+      <c r="H74" s="5"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
         <v>15011021</v>
       </c>
-      <c r="C70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70">
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76">
         <v>6</v>
       </c>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="7:7">
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="7:7">
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="7:7">
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="7:7">
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="7:7">
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="7:7">
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77">
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="8:8">
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="8:8">
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="8:8">
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="8:8">
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="8:8">
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
         <v>15012001</v>
       </c>
-      <c r="C77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77">
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83">
         <v>6</v>
       </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80">
+      <c r="H83" s="5"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
         <v>15013001</v>
       </c>
-      <c r="C80" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80">
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86">
         <v>6</v>
       </c>
-      <c r="G80" s="5"/>
+      <c r="H86" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -157,6 +157,9 @@
     <t>TipsUI</t>
   </si>
   <si>
+    <t>SelectHeroUI</t>
+  </si>
+  <si>
     <t>hero_100</t>
   </si>
   <si>
@@ -287,6 +290,9 @@
   </si>
   <si>
     <t>eft_skill_director_002</t>
+  </si>
+  <si>
+    <t>eft_skill_track_001</t>
   </si>
   <si>
     <t>battle_scene_001</t>
@@ -1319,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1721,34 +1727,34 @@
       </c>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="3:8">
-      <c r="C18" s="2"/>
+    <row r="18" ht="15" customHeight="1" spans="1:8">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>15000015</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:8">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>15001001</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
+    <row r="19" ht="15" customHeight="1" spans="3:8">
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="3:8">
@@ -1759,56 +1765,42 @@
       <c r="G20" s="2"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:8">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>15002001</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="21" ht="15" customHeight="1" spans="3:8">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:8">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>15001001</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="G22" s="2">
         <v>2</v>
       </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="3:8">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:8">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>15003001</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="23" ht="15" customHeight="1" spans="3:8">
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:8">
@@ -1816,43 +1808,29 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>15003002</v>
+        <v>15002001</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2">
         <v>2</v>
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:8">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>15003003</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="25" ht="15" customHeight="1" spans="3:8">
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:8">
@@ -1860,17 +1838,17 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>15003004</v>
+        <v>15003001</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
@@ -1882,29 +1860,43 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>15003005</v>
+        <v>15003002</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2">
         <v>2</v>
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="3:8">
-      <c r="C28" s="2"/>
+    <row r="28" ht="15" customHeight="1" spans="1:8">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>15003003</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:8">
@@ -1912,19 +1904,17 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>15003101</v>
+        <v>15003004</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2">
         <v>2</v>
@@ -1936,47 +1926,29 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>15003102</v>
+        <v>15003005</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2">
         <v>2</v>
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:8">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>15003103</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2</v>
-      </c>
+    <row r="31" ht="15" customHeight="1" spans="3:8">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:8">
@@ -1984,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>15003104</v>
+        <v>15003101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
@@ -2008,64 +1980,98 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>15003105</v>
+        <v>15003102</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="3:8">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+    <row r="34" ht="15" customHeight="1" spans="1:8">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>15003103</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:8">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>15003104</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="3:8">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+    <row r="36" ht="15" customHeight="1" spans="1:8">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>15003105</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>15006001</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="2">
-        <v>3</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" ht="17" customHeight="1" spans="3:8">
+    <row r="38" ht="15" customHeight="1" spans="3:8">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2073,26 +2079,12 @@
       <c r="G38" s="2"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>15008001</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>59</v>
-      </c>
+    <row r="39" ht="15" customHeight="1" spans="3:8">
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2">
-        <v>4</v>
-      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" ht="17" customHeight="1" spans="1:8">
@@ -2100,43 +2092,29 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>15008002</v>
+        <v>15006001</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="G40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>15008003</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>62</v>
-      </c>
+    <row r="41" ht="17" customHeight="1" spans="3:8">
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="2">
-        <v>4</v>
-      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" ht="17" customHeight="1" spans="1:8">
@@ -2144,14 +2122,14 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>15008004</v>
+        <v>15008001</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>20</v>
@@ -2166,14 +2144,14 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>15008005</v>
+        <v>15008002</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>20</v>
@@ -2188,14 +2166,14 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>15008006</v>
+        <v>15008003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>20</v>
@@ -2210,14 +2188,14 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>15008007</v>
+        <v>15008004</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>20</v>
@@ -2232,14 +2210,14 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>15008008</v>
+        <v>15008005</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>20</v>
@@ -2254,14 +2232,14 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>15008009</v>
+        <v>15008006</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>20</v>
@@ -2276,14 +2254,14 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>15008010</v>
+        <v>15008007</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>20</v>
@@ -2298,14 +2276,14 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>15008011</v>
+        <v>15008008</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>20</v>
@@ -2320,14 +2298,14 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>15008012</v>
+        <v>15008009</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>20</v>
@@ -2342,14 +2320,14 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>15008013</v>
+        <v>15008010</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>20</v>
@@ -2364,14 +2342,14 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>15008014</v>
+        <v>15008011</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>20</v>
@@ -2386,14 +2364,14 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>15008015</v>
+        <v>15008012</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
@@ -2408,14 +2386,14 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>15008016</v>
+        <v>15008013</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>20</v>
@@ -2425,12 +2403,26 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" ht="17" customHeight="1" spans="3:8">
-      <c r="C55" s="2"/>
+    <row r="55" ht="17" customHeight="1" spans="1:8">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>15008014</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="2">
+        <v>4</v>
+      </c>
       <c r="H55" s="5"/>
     </row>
     <row r="56" ht="17" customHeight="1" spans="1:8">
@@ -2438,14 +2430,14 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>15008101</v>
+        <v>15008015</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -2460,14 +2452,14 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>15008102</v>
+        <v>15008016</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>20</v>
@@ -2485,20 +2477,48 @@
       <c r="G58" s="2"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" ht="17" customHeight="1" spans="3:8">
-      <c r="C59" s="2"/>
+    <row r="59" ht="17" customHeight="1" spans="1:8">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>15008101</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="2">
+        <v>4</v>
+      </c>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" ht="17" customHeight="1" spans="3:8">
-      <c r="C60" s="2"/>
+    <row r="60" ht="17" customHeight="1" spans="1:8">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>15008102</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="2">
+        <v>4</v>
+      </c>
       <c r="H60" s="5"/>
     </row>
     <row r="61" ht="17" customHeight="1" spans="3:8">
@@ -2509,12 +2529,26 @@
       <c r="G61" s="2"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" ht="17" customHeight="1" spans="3:8">
-      <c r="C62" s="2"/>
+    <row r="62" ht="17" customHeight="1" spans="1:8">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>15008201</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="2">
+        <v>4</v>
+      </c>
       <c r="H62" s="5"/>
     </row>
     <row r="63" ht="17" customHeight="1" spans="3:8">
@@ -2557,114 +2591,75 @@
       <c r="G67" s="2"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" ht="17" customHeight="1" spans="1:8">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68">
+    <row r="68" ht="17" customHeight="1" spans="3:8">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" ht="17" customHeight="1" spans="3:8">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" ht="17" customHeight="1" spans="3:8">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" ht="17" customHeight="1" spans="1:8">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
         <v>15010001</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="2">
+      <c r="C71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="2">
         <v>5</v>
       </c>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" ht="17" customHeight="1" spans="1:8">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" ht="17" customHeight="1" spans="1:8">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
         <v>15010002</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="2">
+      <c r="C72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="2">
         <v>5</v>
       </c>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="8:8">
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71">
-        <v>15011001</v>
-      </c>
-      <c r="C71" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" t="s">
-        <v>82</v>
-      </c>
-      <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71">
-        <v>6</v>
-      </c>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72">
-        <v>15011002</v>
-      </c>
-      <c r="C72" t="s">
-        <v>83</v>
-      </c>
-      <c r="E72" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72">
-        <v>6</v>
-      </c>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>15011003</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" t="s">
-        <v>82</v>
-      </c>
-      <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73">
-        <v>6</v>
-      </c>
+    <row r="73" spans="8:8">
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="1:8">
@@ -2672,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>15011004</v>
+        <v>15011001</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F74" t="s">
         <v>20</v>
@@ -2688,18 +2683,39 @@
       </c>
       <c r="H74" s="5"/>
     </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>15011002</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+      <c r="H75" s="5"/>
+    </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>0</v>
       </c>
       <c r="B76">
-        <v>15011021</v>
+        <v>15011003</v>
       </c>
       <c r="C76" t="s">
         <v>86</v>
       </c>
       <c r="E76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
@@ -2709,13 +2725,46 @@
       </c>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="8:8">
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>15011004</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="8:8">
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="8:8">
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>15011021</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="8:8">
@@ -2727,39 +2776,27 @@
     <row r="82" spans="8:8">
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>15012001</v>
-      </c>
-      <c r="C83" t="s">
-        <v>87</v>
-      </c>
-      <c r="E83" t="s">
-        <v>82</v>
-      </c>
-      <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83">
-        <v>6</v>
-      </c>
+    <row r="83" spans="8:8">
       <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="H85" s="5"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>0</v>
       </c>
       <c r="B86">
-        <v>15013001</v>
+        <v>15012001</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
@@ -2768,6 +2805,27 @@
         <v>6</v>
       </c>
       <c r="H86" s="5"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>15013001</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" t="s">
+        <v>84</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="102">
   <si>
     <t>#</t>
   </si>
@@ -286,6 +286,36 @@
     <t>eft_knife_light</t>
   </si>
   <si>
+    <t>eft_buff_001</t>
+  </si>
+  <si>
+    <t>eft_buff_002</t>
+  </si>
+  <si>
+    <t>eft_impact_001</t>
+  </si>
+  <si>
+    <t>eft_impact_002</t>
+  </si>
+  <si>
+    <t>eft_skill_projectile_002</t>
+  </si>
+  <si>
+    <t>eft_buff_003</t>
+  </si>
+  <si>
+    <t>eft_buff_004</t>
+  </si>
+  <si>
+    <t>eft_buff_005</t>
+  </si>
+  <si>
+    <t>eft_buff_006</t>
+  </si>
+  <si>
+    <t>eft_buff_007</t>
+  </si>
+  <si>
     <t>eft_skill_director_001</t>
   </si>
   <si>
@@ -293,6 +323,9 @@
   </si>
   <si>
     <t>eft_skill_track_001</t>
+  </si>
+  <si>
+    <t>eft_skill_track_002</t>
   </si>
   <si>
     <t>battle_scene_001</t>
@@ -1325,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2469,12 +2502,26 @@
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" ht="17" customHeight="1" spans="3:8">
-      <c r="C58" s="2"/>
+    <row r="58" ht="17" customHeight="1" spans="1:8">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>15008017</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="2">
+        <v>4</v>
+      </c>
       <c r="H58" s="5"/>
     </row>
     <row r="59" ht="17" customHeight="1" spans="1:8">
@@ -2482,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>15008101</v>
+        <v>15008018</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
@@ -2504,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>15008102</v>
+        <v>15008019</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
@@ -2521,12 +2568,26 @@
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" ht="17" customHeight="1" spans="3:8">
-      <c r="C61" s="2"/>
+    <row r="61" ht="17" customHeight="1" spans="1:8">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>15008020</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="2">
+        <v>4</v>
+      </c>
       <c r="H61" s="5"/>
     </row>
     <row r="62" ht="17" customHeight="1" spans="1:8">
@@ -2534,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>15008201</v>
+        <v>15008021</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
@@ -2551,44 +2612,114 @@
       </c>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" ht="17" customHeight="1" spans="3:8">
-      <c r="C63" s="2"/>
+    <row r="63" ht="17" customHeight="1" spans="1:8">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>15008022</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="2">
+        <v>4</v>
+      </c>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" ht="17" customHeight="1" spans="3:8">
-      <c r="C64" s="2"/>
+    <row r="64" ht="17" customHeight="1" spans="1:8">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>15008023</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="2">
+        <v>4</v>
+      </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" ht="17" customHeight="1" spans="3:8">
-      <c r="C65" s="2"/>
+    <row r="65" ht="17" customHeight="1" spans="1:8">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>15008024</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="2">
+        <v>4</v>
+      </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" ht="17" customHeight="1" spans="3:8">
-      <c r="C66" s="2"/>
+    <row r="66" ht="17" customHeight="1" spans="1:8">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>15008025</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="2">
+        <v>4</v>
+      </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" ht="17" customHeight="1" spans="3:8">
-      <c r="C67" s="2"/>
+    <row r="67" ht="17" customHeight="1" spans="1:8">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>15008026</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="2">
+        <v>4</v>
+      </c>
       <c r="H67" s="5"/>
     </row>
     <row r="68" ht="17" customHeight="1" spans="3:8">
@@ -2615,217 +2746,401 @@
       <c r="G70" s="2"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" ht="17" customHeight="1" spans="1:8">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71">
+    <row r="71" ht="17" customHeight="1" spans="3:8">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" ht="17" customHeight="1" spans="3:8">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" ht="17" customHeight="1" spans="3:8">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" ht="17" customHeight="1" spans="3:8">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" ht="17" customHeight="1" spans="1:8">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>15008101</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="2">
+        <v>4</v>
+      </c>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" ht="17" customHeight="1" spans="1:8">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>15008102</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="2">
+        <v>4</v>
+      </c>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" ht="17" customHeight="1" spans="3:8">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" ht="17" customHeight="1" spans="1:8">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>15008201</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="2">
+        <v>4</v>
+      </c>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" ht="17" customHeight="1" spans="1:8">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>15008202</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="2">
+        <v>4</v>
+      </c>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" ht="17" customHeight="1" spans="3:8">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" ht="17" customHeight="1" spans="3:8">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" ht="17" customHeight="1" spans="3:8">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" ht="17" customHeight="1" spans="3:8">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" ht="17" customHeight="1" spans="3:8">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" ht="17" customHeight="1" spans="3:8">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" ht="17" customHeight="1" spans="3:8">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" ht="17" customHeight="1" spans="1:8">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
         <v>15010001</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="2">
+      <c r="C87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="2">
         <v>5</v>
       </c>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" ht="17" customHeight="1" spans="1:8">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72">
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" ht="17" customHeight="1" spans="1:8">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
         <v>15010002</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="2">
+      <c r="C88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="2">
         <v>5</v>
       </c>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="8:8">
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74">
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
         <v>15011001</v>
       </c>
-      <c r="C74" t="s">
-        <v>83</v>
-      </c>
-      <c r="E74" t="s">
-        <v>84</v>
-      </c>
-      <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74">
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90">
         <v>6</v>
       </c>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75">
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
         <v>15011002</v>
       </c>
-      <c r="C75" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75">
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91">
         <v>6</v>
       </c>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76">
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
         <v>15011003</v>
       </c>
-      <c r="C76" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76">
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92">
         <v>6</v>
       </c>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77">
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
         <v>15011004</v>
       </c>
-      <c r="C77" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" t="s">
-        <v>84</v>
-      </c>
-      <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77">
+      <c r="C93" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93">
         <v>6</v>
       </c>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79">
+      <c r="H93" s="5"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
         <v>15011021</v>
       </c>
-      <c r="C79" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" t="s">
-        <v>84</v>
-      </c>
-      <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79">
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" t="s">
+        <v>95</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95">
         <v>6</v>
       </c>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="8:8">
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="8:8">
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="8:8">
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="8:8">
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="8:8">
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="8:8">
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86">
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="8:8">
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102">
         <v>15012001</v>
       </c>
-      <c r="C86" t="s">
-        <v>89</v>
-      </c>
-      <c r="E86" t="s">
-        <v>84</v>
-      </c>
-      <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86">
+      <c r="C102" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102">
         <v>6</v>
       </c>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89">
+      <c r="H102" s="5"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
         <v>15013001</v>
       </c>
-      <c r="C89" t="s">
-        <v>90</v>
-      </c>
-      <c r="E89" t="s">
-        <v>84</v>
-      </c>
-      <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89">
+      <c r="C105" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" t="s">
+        <v>95</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105">
         <v>6</v>
       </c>
-      <c r="H89" s="5"/>
+      <c r="H105" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="15855" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="239">
   <si>
     <t>#</t>
   </si>
@@ -169,7 +169,7 @@
     <t>png</t>
   </si>
   <si>
-    <t>item0</t>
+    <t>icon_money</t>
   </si>
   <si>
     <t>Textures/Item</t>
@@ -193,48 +193,429 @@
     <t>cursor_attack_001</t>
   </si>
   <si>
+    <t>icon_buff_common_01</t>
+  </si>
+  <si>
+    <t>通用 buff</t>
+  </si>
+  <si>
+    <t>Atlas/Common/Buff</t>
+  </si>
+  <si>
+    <t>icon_buff_common_02</t>
+  </si>
+  <si>
+    <t>icon_buff_common_03</t>
+  </si>
+  <si>
+    <t>icon_buff_common_04</t>
+  </si>
+  <si>
+    <t>icon_buff_common_05</t>
+  </si>
+  <si>
+    <t>icon_buff_common_06</t>
+  </si>
+  <si>
+    <t>icon_buff_common_07</t>
+  </si>
+  <si>
+    <t>icon_buff_common_08</t>
+  </si>
+  <si>
+    <t>icon_buff_common_09</t>
+  </si>
+  <si>
+    <t>icon_buff_common_10</t>
+  </si>
+  <si>
+    <t>icon_buff_common_11</t>
+  </si>
+  <si>
+    <t>icon_buff_common_12</t>
+  </si>
+  <si>
+    <t>icon_buff_common_13</t>
+  </si>
+  <si>
+    <t>icon_buff_common_14</t>
+  </si>
+  <si>
+    <t>icon_buff_common_15</t>
+  </si>
+  <si>
+    <t>icon_buff_common_16</t>
+  </si>
+  <si>
+    <t>icon_buff_common_17</t>
+  </si>
+  <si>
+    <t>icon_buff_common_18</t>
+  </si>
+  <si>
+    <t>icon_buff_common_19</t>
+  </si>
+  <si>
+    <t>icon_buff_common_20</t>
+  </si>
+  <si>
+    <t>icon_buff_common_21</t>
+  </si>
+  <si>
+    <t>icon_buff_common_22</t>
+  </si>
+  <si>
+    <t>icon_buff_common_23</t>
+  </si>
+  <si>
+    <t>icon_buff_common_24</t>
+  </si>
+  <si>
+    <t>icon_buff_common_25</t>
+  </si>
+  <si>
+    <t>icon_buff_common_26</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0001</t>
+  </si>
+  <si>
+    <t>英雄buff</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0002</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0003</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0004</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0005</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0006</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0007</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0008</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0009</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0010</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0011</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0012</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0013</t>
+  </si>
+  <si>
     <t>icon_buff_hero_0014</t>
   </si>
   <si>
-    <t>流血</t>
-  </si>
-  <si>
-    <t>Textures/Buff</t>
+    <t>icon_buff_hero_0015</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0016</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0017</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0018</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0019</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0020</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0021</t>
   </si>
   <si>
     <t>icon_buff_hero_0022</t>
   </si>
   <si>
-    <t>击晕</t>
-  </si>
-  <si>
-    <t>icon_buff_common_08</t>
-  </si>
-  <si>
-    <t>减速</t>
-  </si>
-  <si>
-    <t>icon_buff_common_10</t>
-  </si>
-  <si>
-    <t>日炎</t>
-  </si>
-  <si>
-    <t>icon_buff_common_11</t>
-  </si>
-  <si>
-    <t>联盟的 vn w</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>Audio</t>
+    <t>icon_buff_hero_0023</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0024</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0025</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0026</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0027</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0028</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0029</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0030</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0031</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0032</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0033</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0034</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0035</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0036</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0037</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0038</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0039</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0040</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0041</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0042</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0043</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0044</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0045</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0046</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0047</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0048</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0049</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0050</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0051</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0052</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0053</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0054</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0055</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0056</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0057</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0058</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0059</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0060</t>
+  </si>
+  <si>
+    <t>icon_buff_hero_0061</t>
+  </si>
+  <si>
+    <t>img_avatar_001</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>Atlas/Common/RoleAvatar</t>
+  </si>
+  <si>
+    <t>img_avatar_002</t>
+  </si>
+  <si>
+    <t>img_avatar_003</t>
+  </si>
+  <si>
+    <t>img_avatar_004</t>
+  </si>
+  <si>
+    <t>img_avatar_005</t>
+  </si>
+  <si>
+    <t>img_avatar_006</t>
+  </si>
+  <si>
+    <t>img_avatar_007</t>
+  </si>
+  <si>
+    <t>img_avatar_008</t>
+  </si>
+  <si>
+    <t>img_avatar_009</t>
+  </si>
+  <si>
+    <t>img_all_body_001</t>
+  </si>
+  <si>
+    <t>英雄全身像</t>
+  </si>
+  <si>
+    <t>Atlas/Common/HeroAllBody</t>
+  </si>
+  <si>
+    <t>img_all_body_002</t>
+  </si>
+  <si>
+    <t>img_all_body_003</t>
+  </si>
+  <si>
+    <t>img_all_body_004</t>
+  </si>
+  <si>
+    <t>img_attr_attack</t>
+  </si>
+  <si>
+    <t>攻击属性图标</t>
+  </si>
+  <si>
+    <t>Atlas/Common/Attr</t>
+  </si>
+  <si>
+    <t>img_attr_defend</t>
+  </si>
+  <si>
+    <t>护甲属性图标</t>
+  </si>
+  <si>
+    <t>img_attr_max_health</t>
+  </si>
+  <si>
+    <t>最大生命值属性图标</t>
+  </si>
+  <si>
+    <t>img_attr_attack_speed</t>
+  </si>
+  <si>
+    <t>攻击速度属性图标</t>
+  </si>
+  <si>
+    <t>img_attr_move_speed</t>
+  </si>
+  <si>
+    <t>移动速度属性图标</t>
+  </si>
+  <si>
+    <t>img_attr_attack_range</t>
+  </si>
+  <si>
+    <t>攻击距离属性图标</t>
+  </si>
+  <si>
+    <t>img_skill_001</t>
+  </si>
+  <si>
+    <t>技能图标</t>
+  </si>
+  <si>
+    <t>Atlas/Common/SkillIcon</t>
+  </si>
+  <si>
+    <t>img_skill_002</t>
+  </si>
+  <si>
+    <t>img_skill_003</t>
+  </si>
+  <si>
+    <t>img_skill_004</t>
+  </si>
+  <si>
+    <t>img_skill_005</t>
+  </si>
+  <si>
+    <t>bg_01</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>Atlas/BG</t>
+  </si>
+  <si>
+    <t>bg_02</t>
+  </si>
+  <si>
+    <t>bg_03</t>
+  </si>
+  <si>
+    <t>bg_04</t>
+  </si>
+  <si>
+    <t>audio_click_001</t>
+  </si>
+  <si>
+    <t>Audio/Sound</t>
+  </si>
+  <si>
+    <t>wav</t>
+  </si>
+  <si>
+    <t>bgm_battle_001</t>
+  </si>
+  <si>
+    <t>Audio/BGM</t>
   </si>
   <si>
     <t>mp3</t>
   </si>
   <si>
+    <t>bgm_001</t>
+  </si>
+  <si>
+    <t>bgm_002</t>
+  </si>
+  <si>
     <t>eft_select_entity_01</t>
   </si>
   <si>
@@ -316,6 +697,18 @@
     <t>eft_buff_007</t>
   </si>
   <si>
+    <t>eft_knife_hit_001</t>
+  </si>
+  <si>
+    <t>刀 击中</t>
+  </si>
+  <si>
+    <t>eft_knife_hit_002</t>
+  </si>
+  <si>
+    <t>刀 击中2</t>
+  </si>
+  <si>
     <t>eft_skill_director_001</t>
   </si>
   <si>
@@ -337,6 +730,9 @@
     <t>scene_wuxia_002</t>
   </si>
   <si>
+    <t>scene_ogre_001</t>
+  </si>
+  <si>
     <t>shangguanling_battle_001</t>
   </si>
   <si>
@@ -353,6 +749,21 @@
   </si>
   <si>
     <t>tangyi_battle_003</t>
+  </si>
+  <si>
+    <t>role_001</t>
+  </si>
+  <si>
+    <t>role_002</t>
+  </si>
+  <si>
+    <t>monster_001</t>
+  </si>
+  <si>
+    <t>monster_002</t>
+  </si>
+  <si>
+    <t>monster_boss_101</t>
   </si>
   <si>
     <t>monster1_battle</t>
@@ -1358,10 +1769,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:G67"/>
+    <sheetView tabSelected="1" topLeftCell="C169" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180:E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1866,92 +2277,36 @@
       <c r="G25" s="2"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:8">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>15003001</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
+    <row r="26" ht="15" customHeight="1" spans="3:8">
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:8">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>15003002</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="27" ht="15" customHeight="1" spans="3:8">
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2</v>
-      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:8">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>15003003</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="28" ht="15" customHeight="1" spans="3:8">
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="2">
-        <v>2</v>
-      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:8">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>15003004</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
-      </c>
+    <row r="29" ht="15" customHeight="1" spans="3:8">
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2</v>
-      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:8">
@@ -1959,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>15003005</v>
+        <v>15003001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -1976,12 +2331,26 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="3:8">
-      <c r="C31" s="2"/>
+    <row r="31" ht="15" customHeight="1" spans="1:8">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>15003002</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:8">
@@ -1989,16 +2358,14 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>15003101</v>
+        <v>15003003</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>37</v>
@@ -2013,16 +2380,14 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>15003102</v>
+        <v>15003004</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>37</v>
@@ -2037,16 +2402,14 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>15003103</v>
+        <v>15003005</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>37</v>
@@ -2056,28 +2419,12 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:8">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>15003104</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2</v>
-      </c>
+    <row r="35" ht="15" customHeight="1" spans="3:8">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:8">
@@ -2085,1062 +2432,4144 @@
         <v>0</v>
       </c>
       <c r="B36">
+        <v>15003101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:8">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>15003102</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:8">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>15003103</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:8">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>15003104</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:8">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
         <v>15003105</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" spans="3:8">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="3:8">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>15006001</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="3:8">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>15003106</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="1:8">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42">
-        <v>15008001</v>
+        <v>15003107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G42" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" ht="15" customHeight="1" spans="1:8">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43">
-        <v>15008002</v>
+        <v>15003108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G43" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="1:8">
+    <row r="44" ht="15" customHeight="1" spans="1:8">
       <c r="A44" t="s">
         <v>0</v>
       </c>
       <c r="B44">
-        <v>15008003</v>
+        <v>15003109</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" ht="17" customHeight="1" spans="1:8">
+    <row r="45" ht="15" customHeight="1" spans="1:8">
       <c r="A45" t="s">
         <v>0</v>
       </c>
       <c r="B45">
-        <v>15008004</v>
+        <v>15003110</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G45" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" ht="17" customHeight="1" spans="1:8">
+    <row r="46" ht="15" customHeight="1" spans="1:8">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46">
-        <v>15008005</v>
+        <v>15003111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G46" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" ht="17" customHeight="1" spans="1:8">
+    <row r="47" ht="15" customHeight="1" spans="1:8">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47">
-        <v>15008006</v>
+        <v>15003112</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G47" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" ht="17" customHeight="1" spans="1:8">
+    <row r="48" ht="15" customHeight="1" spans="1:8">
       <c r="A48" t="s">
         <v>0</v>
       </c>
       <c r="B48">
-        <v>15008007</v>
+        <v>15003113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="1:8">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>15003114</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="2">
-        <v>4</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" ht="17" customHeight="1" spans="1:8">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>15008008</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" ht="17" customHeight="1" spans="1:8">
+    <row r="50" ht="15" customHeight="1" spans="1:8">
       <c r="A50" t="s">
         <v>0</v>
       </c>
       <c r="B50">
-        <v>15008009</v>
+        <v>15003115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G50" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" ht="17" customHeight="1" spans="1:8">
+    <row r="51" ht="15" customHeight="1" spans="1:8">
       <c r="A51" t="s">
         <v>0</v>
       </c>
       <c r="B51">
-        <v>15008010</v>
+        <v>15003116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G51" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" ht="17" customHeight="1" spans="1:8">
+    <row r="52" ht="15" customHeight="1" spans="1:8">
       <c r="A52" t="s">
         <v>0</v>
       </c>
       <c r="B52">
-        <v>15008011</v>
+        <v>15003117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G52" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" ht="17" customHeight="1" spans="1:8">
+    <row r="53" ht="15" customHeight="1" spans="1:8">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
-        <v>15008012</v>
+        <v>15003118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" ht="17" customHeight="1" spans="1:8">
+    <row r="54" ht="15" customHeight="1" spans="1:8">
       <c r="A54" t="s">
         <v>0</v>
       </c>
       <c r="B54">
-        <v>15008013</v>
+        <v>15003119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G54" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" ht="17" customHeight="1" spans="1:8">
+    <row r="55" ht="15" customHeight="1" spans="1:8">
       <c r="A55" t="s">
         <v>0</v>
       </c>
       <c r="B55">
-        <v>15008014</v>
+        <v>15003120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G55" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" ht="17" customHeight="1" spans="1:8">
+    <row r="56" ht="15" customHeight="1" spans="1:8">
       <c r="A56" t="s">
         <v>0</v>
       </c>
       <c r="B56">
-        <v>15008015</v>
+        <v>15003121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G56" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" ht="17" customHeight="1" spans="1:8">
+    <row r="57" ht="15" customHeight="1" spans="1:8">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57">
-        <v>15008016</v>
+        <v>15003122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G57" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" ht="17" customHeight="1" spans="1:8">
+    <row r="58" ht="15" customHeight="1" spans="1:8">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>15008017</v>
+        <v>15003123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G58" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" ht="17" customHeight="1" spans="1:8">
+    <row r="59" ht="15" customHeight="1" spans="1:8">
       <c r="A59" t="s">
         <v>0</v>
       </c>
       <c r="B59">
-        <v>15008018</v>
+        <v>15003124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G59" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" ht="17" customHeight="1" spans="1:8">
+    <row r="60" ht="15" customHeight="1" spans="1:8">
       <c r="A60" t="s">
         <v>0</v>
       </c>
       <c r="B60">
-        <v>15008019</v>
+        <v>15003125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G60" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" ht="17" customHeight="1" spans="1:8">
+    <row r="61" ht="15" customHeight="1" spans="1:8">
       <c r="A61" t="s">
         <v>0</v>
       </c>
       <c r="B61">
-        <v>15008020</v>
+        <v>15003126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G61" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" ht="17" customHeight="1" spans="1:8">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62">
-        <v>15008021</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="62" ht="15" customHeight="1" spans="3:8">
+      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="2">
-        <v>4</v>
-      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" ht="17" customHeight="1" spans="1:8">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63">
-        <v>15008022</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>82</v>
-      </c>
+    <row r="63" ht="15" customHeight="1" spans="3:8">
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="2">
-        <v>4</v>
-      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" ht="17" customHeight="1" spans="1:8">
+    <row r="64" ht="15" customHeight="1" spans="1:8">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64">
-        <v>15008023</v>
+        <v>15003201</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E64" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G64" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" ht="17" customHeight="1" spans="1:8">
+    <row r="65" ht="15" customHeight="1" spans="1:8">
       <c r="A65" t="s">
         <v>0</v>
       </c>
       <c r="B65">
-        <v>15008024</v>
+        <v>15003202</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G65" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" ht="17" customHeight="1" spans="1:8">
+    <row r="66" ht="15" customHeight="1" spans="1:8">
       <c r="A66" t="s">
         <v>0</v>
       </c>
       <c r="B66">
-        <v>15008025</v>
+        <v>15003203</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G66" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" ht="17" customHeight="1" spans="1:8">
+    <row r="67" ht="15" customHeight="1" spans="1:8">
       <c r="A67" t="s">
         <v>0</v>
       </c>
       <c r="B67">
-        <v>15008026</v>
+        <v>15003204</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G67" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" ht="17" customHeight="1" spans="3:8">
-      <c r="C68" s="2"/>
+    <row r="68" ht="15" customHeight="1" spans="1:8">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>15003205</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2</v>
+      </c>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" ht="17" customHeight="1" spans="3:8">
-      <c r="C69" s="2"/>
+    <row r="69" ht="15" customHeight="1" spans="1:8">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>15003206</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2</v>
+      </c>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" ht="17" customHeight="1" spans="3:8">
-      <c r="C70" s="2"/>
+    <row r="70" ht="15" customHeight="1" spans="1:8">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>15003207</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="2">
+        <v>2</v>
+      </c>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" ht="17" customHeight="1" spans="3:8">
-      <c r="C71" s="2"/>
+    <row r="71" ht="15" customHeight="1" spans="1:8">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>15003208</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2</v>
+      </c>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" ht="17" customHeight="1" spans="3:8">
-      <c r="C72" s="2"/>
+    <row r="72" ht="15" customHeight="1" spans="1:8">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>15003209</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" s="2">
+        <v>2</v>
+      </c>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" ht="17" customHeight="1" spans="3:8">
-      <c r="C73" s="2"/>
+    <row r="73" ht="15" customHeight="1" spans="1:8">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>15003210</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G73" s="2">
+        <v>2</v>
+      </c>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" ht="17" customHeight="1" spans="3:8">
-      <c r="C74" s="2"/>
+    <row r="74" ht="15" customHeight="1" spans="1:8">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>15003211</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2</v>
+      </c>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" ht="17" customHeight="1" spans="1:8">
+    <row r="75" ht="15" customHeight="1" spans="1:8">
       <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="B75">
-        <v>15008101</v>
+        <v>15003212</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G75" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" ht="17" customHeight="1" spans="1:8">
+    <row r="76" ht="15" customHeight="1" spans="1:8">
       <c r="A76" t="s">
         <v>0</v>
       </c>
       <c r="B76">
-        <v>15008102</v>
+        <v>15003213</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G76" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" ht="17" customHeight="1" spans="3:8">
-      <c r="C77" s="2"/>
+    <row r="77" ht="15" customHeight="1" spans="1:8">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>15003214</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G77" s="2">
+        <v>2</v>
+      </c>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" ht="17" customHeight="1" spans="1:8">
+    <row r="78" ht="15" customHeight="1" spans="1:8">
       <c r="A78" t="s">
         <v>0</v>
       </c>
       <c r="B78">
-        <v>15008201</v>
+        <v>15003215</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G78" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" ht="17" customHeight="1" spans="1:8">
+    <row r="79" ht="15" customHeight="1" spans="1:8">
       <c r="A79" t="s">
         <v>0</v>
       </c>
       <c r="B79">
-        <v>15008202</v>
+        <v>15003216</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G79" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" ht="17" customHeight="1" spans="3:8">
-      <c r="C80" s="2"/>
+    <row r="80" ht="15" customHeight="1" spans="1:8">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>15003217</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="2">
+        <v>2</v>
+      </c>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" ht="17" customHeight="1" spans="3:8">
-      <c r="C81" s="2"/>
+    <row r="81" ht="15" customHeight="1" spans="1:8">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>15003218</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="2">
+        <v>2</v>
+      </c>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" ht="17" customHeight="1" spans="3:8">
-      <c r="C82" s="2"/>
+    <row r="82" ht="15" customHeight="1" spans="1:8">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>15003219</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" s="2">
+        <v>2</v>
+      </c>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" ht="17" customHeight="1" spans="3:8">
-      <c r="C83" s="2"/>
+    <row r="83" ht="15" customHeight="1" spans="1:8">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>15003220</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G83" s="2">
+        <v>2</v>
+      </c>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" ht="17" customHeight="1" spans="3:8">
-      <c r="C84" s="2"/>
+    <row r="84" ht="15" customHeight="1" spans="1:8">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>15003221</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2</v>
+      </c>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" ht="17" customHeight="1" spans="3:8">
-      <c r="C85" s="2"/>
+    <row r="85" ht="15" customHeight="1" spans="1:8">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>15003222</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2</v>
+      </c>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" ht="17" customHeight="1" spans="3:8">
-      <c r="C86" s="2"/>
+    <row r="86" ht="15" customHeight="1" spans="1:8">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>15003223</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2</v>
+      </c>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" ht="17" customHeight="1" spans="1:8">
+    <row r="87" ht="15" customHeight="1" spans="1:8">
       <c r="A87" t="s">
         <v>0</v>
       </c>
       <c r="B87">
-        <v>15010001</v>
+        <v>15003224</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G87" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" ht="17" customHeight="1" spans="1:8">
+    <row r="88" ht="15" customHeight="1" spans="1:8">
       <c r="A88" t="s">
         <v>0</v>
       </c>
       <c r="B88">
-        <v>15010002</v>
+        <v>15003225</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" s="2">
+        <v>2</v>
+      </c>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" ht="15" customHeight="1" spans="1:8">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>15003226</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2</v>
+      </c>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" ht="15" customHeight="1" spans="1:8">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>15003227</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" s="2">
+        <v>2</v>
+      </c>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" ht="15" customHeight="1" spans="1:8">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>15003228</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" s="2">
+        <v>2</v>
+      </c>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="1:8">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>15003229</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="2">
+        <v>2</v>
+      </c>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" ht="15" customHeight="1" spans="1:8">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>15003230</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="2">
+        <v>2</v>
+      </c>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="1:8">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>15003231</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2</v>
+      </c>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="1:8">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>15003232</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G95" s="2">
+        <v>2</v>
+      </c>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="1:8">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>15003233</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2</v>
+      </c>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" ht="15" customHeight="1" spans="1:8">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>15003234</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G97" s="2">
+        <v>2</v>
+      </c>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" ht="15" customHeight="1" spans="1:8">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>15003235</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" s="2">
+        <v>2</v>
+      </c>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" ht="15" customHeight="1" spans="1:8">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>15003236</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" s="2">
+        <v>2</v>
+      </c>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" ht="15" customHeight="1" spans="1:8">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>15003237</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" s="2">
+        <v>2</v>
+      </c>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" ht="15" customHeight="1" spans="1:8">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>15003238</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="2">
+        <v>2</v>
+      </c>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" spans="1:8">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>15003239</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="2">
+        <v>2</v>
+      </c>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" spans="1:8">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>15003240</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" s="2">
+        <v>2</v>
+      </c>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" spans="1:8">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>15003241</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" s="2">
+        <v>2</v>
+      </c>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" spans="1:8">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>15003242</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" s="2">
+        <v>2</v>
+      </c>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" spans="1:8">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>15003243</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" s="2">
+        <v>2</v>
+      </c>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" spans="1:8">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>15003244</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G107" s="2">
+        <v>2</v>
+      </c>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" spans="1:8">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>15003245</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G108" s="2">
+        <v>2</v>
+      </c>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" spans="1:8">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>15003246</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" s="2">
+        <v>2</v>
+      </c>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" spans="1:8">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>15003247</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" s="2">
+        <v>2</v>
+      </c>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" spans="1:8">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>15003248</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" s="2">
+        <v>2</v>
+      </c>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" spans="1:8">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>15003249</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G112" s="2">
+        <v>2</v>
+      </c>
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" spans="1:8">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>15003250</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" s="2">
+        <v>2</v>
+      </c>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" ht="15" customHeight="1" spans="1:8">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>15003251</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" s="2">
+        <v>2</v>
+      </c>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" ht="15" customHeight="1" spans="1:8">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>15003252</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" s="2">
+        <v>2</v>
+      </c>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" ht="15" customHeight="1" spans="1:8">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>15003253</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="2">
+        <v>2</v>
+      </c>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" ht="15" customHeight="1" spans="1:8">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>15003254</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" s="2">
+        <v>2</v>
+      </c>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" ht="15" customHeight="1" spans="1:8">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>15003255</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" s="2">
+        <v>2</v>
+      </c>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" ht="15" customHeight="1" spans="1:8">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>15003256</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" s="2">
+        <v>2</v>
+      </c>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" ht="15" customHeight="1" spans="1:8">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>15003257</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" s="2">
+        <v>2</v>
+      </c>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" ht="15" customHeight="1" spans="1:8">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>15003258</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G121" s="2">
+        <v>2</v>
+      </c>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" ht="15" customHeight="1" spans="1:8">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>15003259</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122" s="2">
+        <v>2</v>
+      </c>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" ht="15" customHeight="1" spans="1:8">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>15003260</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123" s="2">
+        <v>2</v>
+      </c>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" ht="15" customHeight="1" spans="1:8">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>15003261</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124" s="2">
+        <v>2</v>
+      </c>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" ht="15" customHeight="1" spans="3:8">
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" ht="15" customHeight="1" spans="3:8">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" ht="15" customHeight="1" spans="3:8">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" ht="15" customHeight="1" spans="3:8">
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" ht="15" customHeight="1" spans="3:8">
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" ht="15" customHeight="1" spans="3:8">
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" ht="15" customHeight="1" spans="3:8">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" ht="15" customHeight="1" spans="3:8">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" ht="15" customHeight="1" spans="3:8">
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" ht="15" customHeight="1" spans="3:8">
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" ht="15" customHeight="1" spans="3:8">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" ht="15" customHeight="1" spans="3:8">
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" ht="15" customHeight="1" spans="1:8">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>15003501</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G137" s="2">
+        <v>2</v>
+      </c>
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" ht="15" customHeight="1" spans="1:8">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>15003502</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G138" s="2">
+        <v>2</v>
+      </c>
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" ht="15" customHeight="1" spans="1:8">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>15003503</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" s="2">
+        <v>2</v>
+      </c>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" ht="15" customHeight="1" spans="1:8">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>15003504</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G140" s="2">
+        <v>2</v>
+      </c>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" ht="15" customHeight="1" spans="1:8">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>15003505</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" s="2">
+        <v>2</v>
+      </c>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" ht="15" customHeight="1" spans="1:8">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>15003506</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G142" s="2">
+        <v>2</v>
+      </c>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" ht="15" customHeight="1" spans="1:8">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>15003507</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G143" s="2">
+        <v>2</v>
+      </c>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" ht="15" customHeight="1" spans="1:8">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>15003508</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G144" s="2">
+        <v>2</v>
+      </c>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" ht="15" customHeight="1" spans="1:8">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>15003509</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G145" s="2">
+        <v>2</v>
+      </c>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" ht="15" customHeight="1" spans="3:8">
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" ht="15" customHeight="1" spans="1:8">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>15003601</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" s="2">
+        <v>2</v>
+      </c>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" ht="15" customHeight="1" spans="1:8">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>15003602</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" s="2">
+        <v>2</v>
+      </c>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" ht="15" customHeight="1" spans="1:8">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>15003603</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" s="2">
+        <v>2</v>
+      </c>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" ht="15" customHeight="1" spans="1:8">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>15003604</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150" s="2">
+        <v>2</v>
+      </c>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" ht="15" customHeight="1" spans="3:8">
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" ht="15" customHeight="1" spans="3:8">
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" ht="15" customHeight="1" spans="3:8">
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" ht="15" customHeight="1" spans="3:8">
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" ht="15" customHeight="1" spans="3:8">
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="5"/>
+    </row>
+    <row r="156" ht="15" customHeight="1" spans="3:8">
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" ht="15" customHeight="1" spans="3:8">
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" ht="15" customHeight="1" spans="3:8">
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" ht="15" customHeight="1" spans="3:8">
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" ht="15" customHeight="1" spans="3:8">
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" ht="15" customHeight="1" spans="3:8">
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" ht="15" customHeight="1" spans="3:8">
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" ht="15" customHeight="1" spans="3:8">
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" ht="15" customHeight="1" spans="3:8">
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" ht="15" customHeight="1" spans="3:8">
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" ht="15" customHeight="1" spans="3:8">
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" ht="15" customHeight="1" spans="1:8">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>15003701</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G167" s="2">
+        <v>2</v>
+      </c>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" ht="15" customHeight="1" spans="1:8">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>15003702</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G168" s="2">
+        <v>2</v>
+      </c>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" ht="15" customHeight="1" spans="1:8">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>15003703</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G169" s="2">
+        <v>2</v>
+      </c>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" ht="15" customHeight="1" spans="1:8">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>15003704</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G170" s="2">
+        <v>2</v>
+      </c>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" ht="15" customHeight="1" spans="1:8">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>15003705</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G171" s="2">
+        <v>2</v>
+      </c>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" ht="15" customHeight="1" spans="1:8">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>15003706</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G172" s="2">
+        <v>2</v>
+      </c>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" ht="15" customHeight="1" spans="3:8">
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" ht="15" customHeight="1" spans="1:8">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>15003751</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G174" s="2">
+        <v>2</v>
+      </c>
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" ht="15" customHeight="1" spans="1:8">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>15003752</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G175" s="2">
+        <v>2</v>
+      </c>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" ht="15" customHeight="1" spans="1:8">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>15003753</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G176" s="2">
+        <v>2</v>
+      </c>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" ht="15" customHeight="1" spans="1:8">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>15003754</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G177" s="2">
+        <v>2</v>
+      </c>
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" ht="15" customHeight="1" spans="1:8">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>15003755</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G178" s="2">
+        <v>2</v>
+      </c>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" ht="15" customHeight="1" spans="3:8">
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" ht="15" customHeight="1" spans="1:8">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>15005000</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G180" s="2">
+        <v>2</v>
+      </c>
+      <c r="H180" s="5"/>
+    </row>
+    <row r="181" ht="15" customHeight="1" spans="1:8">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>15005001</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G181" s="2">
+        <v>2</v>
+      </c>
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" ht="15" customHeight="1" spans="1:8">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>15005002</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G182" s="2">
+        <v>2</v>
+      </c>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" ht="15" customHeight="1" spans="1:8">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>15005003</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G183" s="2">
+        <v>2</v>
+      </c>
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" ht="15" customHeight="1" spans="3:8">
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" ht="15" customHeight="1" spans="3:8">
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" ht="15" customHeight="1" spans="3:8">
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" ht="17" customHeight="1" spans="1:8">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>15006001</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G187" s="2">
+        <v>3</v>
+      </c>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>15006002</v>
+      </c>
+      <c r="C188" t="s">
+        <v>182</v>
+      </c>
+      <c r="E188" t="s">
+        <v>183</v>
+      </c>
+      <c r="F188" t="s">
+        <v>184</v>
+      </c>
+      <c r="G188">
+        <v>3</v>
+      </c>
+      <c r="H188" s="5"/>
+    </row>
+    <row r="189" ht="17" customHeight="1" spans="1:8">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>15006003</v>
+      </c>
+      <c r="C189" t="s">
+        <v>185</v>
+      </c>
+      <c r="E189" t="s">
+        <v>183</v>
+      </c>
+      <c r="F189" t="s">
+        <v>184</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" ht="17" customHeight="1" spans="1:8">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>15006004</v>
+      </c>
+      <c r="C190" t="s">
+        <v>186</v>
+      </c>
+      <c r="E190" t="s">
+        <v>183</v>
+      </c>
+      <c r="F190" t="s">
+        <v>184</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" ht="17" customHeight="1" spans="3:8">
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" ht="17" customHeight="1" spans="3:8">
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" ht="17" customHeight="1" spans="3:8">
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" ht="17" customHeight="1" spans="3:8">
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" ht="17" customHeight="1" spans="1:8">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>15008001</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G195" s="2">
+        <v>4</v>
+      </c>
+      <c r="H195" s="5"/>
+    </row>
+    <row r="196" ht="17" customHeight="1" spans="1:8">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>15008002</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G196" s="2">
+        <v>4</v>
+      </c>
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" ht="17" customHeight="1" spans="1:8">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>15008003</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G197" s="2">
+        <v>4</v>
+      </c>
+      <c r="H197" s="5"/>
+    </row>
+    <row r="198" ht="17" customHeight="1" spans="1:8">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>15008004</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G198" s="2">
+        <v>4</v>
+      </c>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" ht="17" customHeight="1" spans="1:8">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>15008005</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G199" s="2">
+        <v>4</v>
+      </c>
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" ht="17" customHeight="1" spans="1:8">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>15008006</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G200" s="2">
+        <v>4</v>
+      </c>
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" ht="17" customHeight="1" spans="1:8">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>15008007</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G201" s="2">
+        <v>4</v>
+      </c>
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" ht="17" customHeight="1" spans="1:8">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>15008008</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G202" s="2">
+        <v>4</v>
+      </c>
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" ht="17" customHeight="1" spans="1:8">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>15008009</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G203" s="2">
+        <v>4</v>
+      </c>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" ht="17" customHeight="1" spans="1:8">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>15008010</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G204" s="2">
+        <v>4</v>
+      </c>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" ht="17" customHeight="1" spans="1:8">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>15008011</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G205" s="2">
+        <v>4</v>
+      </c>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" ht="17" customHeight="1" spans="1:8">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>15008012</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G206" s="2">
+        <v>4</v>
+      </c>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" ht="17" customHeight="1" spans="1:8">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>15008013</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G207" s="2">
+        <v>4</v>
+      </c>
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" ht="17" customHeight="1" spans="1:8">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>15008014</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G208" s="2">
+        <v>4</v>
+      </c>
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" ht="17" customHeight="1" spans="1:8">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>15008015</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G209" s="2">
+        <v>4</v>
+      </c>
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" ht="17" customHeight="1" spans="1:8">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>15008016</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G210" s="2">
+        <v>4</v>
+      </c>
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" ht="17" customHeight="1" spans="1:8">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>15008017</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G211" s="2">
+        <v>4</v>
+      </c>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" ht="17" customHeight="1" spans="1:8">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>15008018</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G212" s="2">
+        <v>4</v>
+      </c>
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" ht="17" customHeight="1" spans="1:8">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>15008019</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G213" s="2">
+        <v>4</v>
+      </c>
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" ht="17" customHeight="1" spans="1:8">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>15008020</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G214" s="2">
+        <v>4</v>
+      </c>
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" ht="17" customHeight="1" spans="1:8">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>15008021</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G215" s="2">
+        <v>4</v>
+      </c>
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" ht="17" customHeight="1" spans="1:8">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>15008022</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G216" s="2">
+        <v>4</v>
+      </c>
+      <c r="H216" s="5"/>
+    </row>
+    <row r="217" ht="17" customHeight="1" spans="1:8">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>15008023</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G217" s="2">
+        <v>4</v>
+      </c>
+      <c r="H217" s="5"/>
+    </row>
+    <row r="218" ht="17" customHeight="1" spans="1:8">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>15008024</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G218" s="2">
+        <v>4</v>
+      </c>
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" ht="17" customHeight="1" spans="1:8">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>15008025</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G219" s="2">
+        <v>4</v>
+      </c>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" ht="17" customHeight="1" spans="1:8">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>15008026</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G220" s="2">
+        <v>4</v>
+      </c>
+      <c r="H220" s="5"/>
+    </row>
+    <row r="221" ht="17" customHeight="1" spans="1:8">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221">
+        <v>15008027</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G221" s="2">
+        <v>4</v>
+      </c>
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" ht="17" customHeight="1" spans="1:8">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222">
+        <v>15008028</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G222" s="2">
+        <v>4</v>
+      </c>
+      <c r="H222" s="5"/>
+    </row>
+    <row r="223" ht="17" customHeight="1" spans="3:8">
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" ht="17" customHeight="1" spans="3:8">
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" ht="17" customHeight="1" spans="3:8">
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="5"/>
+    </row>
+    <row r="226" ht="17" customHeight="1" spans="3:8">
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" ht="17" customHeight="1" spans="3:8">
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="5"/>
+    </row>
+    <row r="228" ht="17" customHeight="1" spans="1:8">
+      <c r="A228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>15008101</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G228" s="2">
+        <v>4</v>
+      </c>
+      <c r="H228" s="5"/>
+    </row>
+    <row r="229" ht="17" customHeight="1" spans="1:8">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>15008102</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G229" s="2">
+        <v>4</v>
+      </c>
+      <c r="H229" s="5"/>
+    </row>
+    <row r="230" ht="17" customHeight="1" spans="3:8">
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" ht="17" customHeight="1" spans="1:8">
+      <c r="A231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>15008201</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G231" s="2">
+        <v>4</v>
+      </c>
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" ht="17" customHeight="1" spans="1:8">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232">
+        <v>15008202</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G232" s="2">
+        <v>4</v>
+      </c>
+      <c r="H232" s="5"/>
+    </row>
+    <row r="233" ht="17" customHeight="1" spans="3:8">
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" ht="17" customHeight="1" spans="3:8">
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" ht="17" customHeight="1" spans="3:8">
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" ht="17" customHeight="1" spans="3:8">
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" ht="17" customHeight="1" spans="3:8">
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" ht="17" customHeight="1" spans="3:8">
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" ht="17" customHeight="1" spans="3:8">
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" ht="17" customHeight="1" spans="1:8">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>15010001</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G240" s="2">
         <v>5</v>
       </c>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="8:8">
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90">
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" ht="17" customHeight="1" spans="1:8">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>15010002</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G241" s="2">
+        <v>5</v>
+      </c>
+      <c r="H241" s="5"/>
+    </row>
+    <row r="242" ht="17" customHeight="1" spans="1:8">
+      <c r="A242" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>15010003</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G242" s="2">
+        <v>5</v>
+      </c>
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" spans="8:8">
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" spans="8:8">
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" spans="8:8">
+      <c r="H245" s="5"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246">
         <v>15011001</v>
       </c>
-      <c r="C90" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" t="s">
-        <v>95</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="C246" t="s">
+        <v>226</v>
+      </c>
+      <c r="E246" t="s">
+        <v>227</v>
+      </c>
+      <c r="F246" t="s">
         <v>20</v>
       </c>
-      <c r="G90">
+      <c r="G246">
         <v>6</v>
       </c>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91">
+      <c r="H246" s="5"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247">
         <v>15011002</v>
       </c>
-      <c r="C91" t="s">
-        <v>96</v>
-      </c>
-      <c r="E91" t="s">
-        <v>95</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="C247" t="s">
+        <v>228</v>
+      </c>
+      <c r="E247" t="s">
+        <v>227</v>
+      </c>
+      <c r="F247" t="s">
         <v>20</v>
       </c>
-      <c r="G91">
+      <c r="G247">
         <v>6</v>
       </c>
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92">
+      <c r="H247" s="5"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248">
         <v>15011003</v>
       </c>
-      <c r="C92" t="s">
-        <v>97</v>
-      </c>
-      <c r="E92" t="s">
-        <v>95</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="C248" t="s">
+        <v>229</v>
+      </c>
+      <c r="E248" t="s">
+        <v>227</v>
+      </c>
+      <c r="F248" t="s">
         <v>20</v>
       </c>
-      <c r="G92">
+      <c r="G248">
         <v>6</v>
       </c>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93">
+      <c r="H248" s="5"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249">
         <v>15011004</v>
       </c>
-      <c r="C93" t="s">
-        <v>98</v>
-      </c>
-      <c r="E93" t="s">
-        <v>95</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="C249" t="s">
+        <v>230</v>
+      </c>
+      <c r="E249" t="s">
+        <v>227</v>
+      </c>
+      <c r="F249" t="s">
         <v>20</v>
       </c>
-      <c r="G93">
+      <c r="G249">
         <v>6</v>
       </c>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95">
+      <c r="H249" s="5"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251">
         <v>15011021</v>
       </c>
-      <c r="C95" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" t="s">
-        <v>95</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="C251" t="s">
+        <v>231</v>
+      </c>
+      <c r="E251" t="s">
+        <v>227</v>
+      </c>
+      <c r="F251" t="s">
         <v>20</v>
       </c>
-      <c r="G95">
+      <c r="G251">
         <v>6</v>
       </c>
-      <c r="H95" s="5"/>
-    </row>
-    <row r="96" spans="8:8">
-      <c r="H96" s="5"/>
-    </row>
-    <row r="97" spans="8:8">
-      <c r="H97" s="5"/>
-    </row>
-    <row r="98" spans="8:8">
-      <c r="H98" s="5"/>
-    </row>
-    <row r="99" spans="8:8">
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" spans="8:8">
-      <c r="H100" s="5"/>
-    </row>
-    <row r="101" spans="8:8">
-      <c r="H101" s="5"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102">
+      <c r="H251" s="5"/>
+    </row>
+    <row r="252" spans="8:8">
+      <c r="H252" s="5"/>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>15011030</v>
+      </c>
+      <c r="C253" t="s">
+        <v>232</v>
+      </c>
+      <c r="E253" t="s">
+        <v>227</v>
+      </c>
+      <c r="F253" t="s">
+        <v>20</v>
+      </c>
+      <c r="G253">
+        <v>6</v>
+      </c>
+      <c r="H253" s="5"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>15011031</v>
+      </c>
+      <c r="C254" t="s">
+        <v>233</v>
+      </c>
+      <c r="E254" t="s">
+        <v>227</v>
+      </c>
+      <c r="F254" t="s">
+        <v>20</v>
+      </c>
+      <c r="G254">
+        <v>6</v>
+      </c>
+      <c r="H254" s="5"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>15011032</v>
+      </c>
+      <c r="C255" t="s">
+        <v>234</v>
+      </c>
+      <c r="E255" t="s">
+        <v>227</v>
+      </c>
+      <c r="F255" t="s">
+        <v>20</v>
+      </c>
+      <c r="G255">
+        <v>6</v>
+      </c>
+      <c r="H255" s="5"/>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>15011033</v>
+      </c>
+      <c r="C256" t="s">
+        <v>235</v>
+      </c>
+      <c r="E256" t="s">
+        <v>227</v>
+      </c>
+      <c r="F256" t="s">
+        <v>20</v>
+      </c>
+      <c r="G256">
+        <v>6</v>
+      </c>
+      <c r="H256" s="5"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257">
+        <v>15011034</v>
+      </c>
+      <c r="C257" t="s">
+        <v>236</v>
+      </c>
+      <c r="E257" t="s">
+        <v>227</v>
+      </c>
+      <c r="F257" t="s">
+        <v>20</v>
+      </c>
+      <c r="G257">
+        <v>6</v>
+      </c>
+      <c r="H257" s="5"/>
+    </row>
+    <row r="258" spans="8:8">
+      <c r="H258" s="5"/>
+    </row>
+    <row r="259" spans="8:8">
+      <c r="H259" s="5"/>
+    </row>
+    <row r="260" spans="8:8">
+      <c r="H260" s="5"/>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
+        <v>0</v>
+      </c>
+      <c r="B261">
         <v>15012001</v>
       </c>
-      <c r="C102" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" t="s">
-        <v>95</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="C261" t="s">
+        <v>237</v>
+      </c>
+      <c r="E261" t="s">
+        <v>227</v>
+      </c>
+      <c r="F261" t="s">
         <v>20</v>
       </c>
-      <c r="G102">
+      <c r="G261">
         <v>6</v>
       </c>
-      <c r="H102" s="5"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105">
+      <c r="H261" s="5"/>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
+        <v>0</v>
+      </c>
+      <c r="B264">
         <v>15013001</v>
       </c>
-      <c r="C105" t="s">
-        <v>101</v>
-      </c>
-      <c r="E105" t="s">
-        <v>95</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="C264" t="s">
+        <v>238</v>
+      </c>
+      <c r="E264" t="s">
+        <v>227</v>
+      </c>
+      <c r="F264" t="s">
         <v>20</v>
       </c>
-      <c r="G105">
+      <c r="G264">
         <v>6</v>
       </c>
-      <c r="H105" s="5"/>
+      <c r="H264" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15855" windowHeight="8490"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,8 @@
 3 audio 声音
 4 effect 特效
 5 scene 场景
-6 model 模型</t>
+6 model 模型
+7 shader </t>
         </r>
       </text>
     </comment>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="250">
   <si>
     <t>#</t>
   </si>
@@ -172,7 +173,7 @@
     <t>icon_money</t>
   </si>
   <si>
-    <t>Textures/Item</t>
+    <t>Atlas\Common\Item</t>
   </si>
   <si>
     <t>cursor_001</t>
@@ -709,6 +710,15 @@
     <t>刀 击中2</t>
   </si>
   <si>
+    <t>eft_range_001</t>
+  </si>
+  <si>
+    <t>eft_explosion_002</t>
+  </si>
+  <si>
+    <t>eft_explosion_003</t>
+  </si>
+  <si>
     <t>eft_skill_director_001</t>
   </si>
   <si>
@@ -770,12 +780,36 @@
   </si>
   <si>
     <t>daoba_battle_030</t>
+  </si>
+  <si>
+    <t>OutlineEffect</t>
+  </si>
+  <si>
+    <t>Shader</t>
+  </si>
+  <si>
+    <t>shader</t>
+  </si>
+  <si>
+    <t>BattleScene_001</t>
+  </si>
+  <si>
+    <t>Scenes</t>
+  </si>
+  <si>
+    <t>unity</t>
+  </si>
+  <si>
+    <t>LoginScene</t>
+  </si>
+  <si>
+    <t>LobbyScene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -788,34 +822,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,14 +838,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -879,6 +877,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,18 +942,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -961,55 +995,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,31 +1019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,6 +1055,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1087,7 +1079,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,7 +1127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,6 +1163,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1152,21 +1186,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1199,6 +1218,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,148 +1291,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1424,52 +1458,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1769,10 +1803,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C169" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180:E183"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="G272" sqref="G272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6040,28 +6074,70 @@
       </c>
       <c r="H222" s="5"/>
     </row>
-    <row r="223" ht="17" customHeight="1" spans="3:8">
-      <c r="C223" s="2"/>
+    <row r="223" ht="17" customHeight="1" spans="1:8">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>15008029</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
+      <c r="E223" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G223" s="2">
+        <v>4</v>
+      </c>
       <c r="H223" s="5"/>
     </row>
-    <row r="224" ht="17" customHeight="1" spans="3:8">
-      <c r="C224" s="2"/>
+    <row r="224" ht="17" customHeight="1" spans="1:8">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>15008030</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
+      <c r="E224" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G224" s="2">
+        <v>4</v>
+      </c>
       <c r="H224" s="5"/>
     </row>
-    <row r="225" ht="17" customHeight="1" spans="3:8">
-      <c r="C225" s="2"/>
+    <row r="225" ht="17" customHeight="1" spans="1:8">
+      <c r="A225" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>15008031</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
+      <c r="E225" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G225" s="2">
+        <v>4</v>
+      </c>
       <c r="H225" s="5"/>
     </row>
     <row r="226" ht="17" customHeight="1" spans="3:8">
@@ -6088,7 +6164,7 @@
         <v>15008101</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
@@ -6110,7 +6186,7 @@
         <v>15008102</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
@@ -6140,7 +6216,7 @@
         <v>15008201</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
@@ -6162,7 +6238,7 @@
         <v>15008202</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2" t="s">
@@ -6240,11 +6316,11 @@
         <v>15010001</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>20</v>
@@ -6262,11 +6338,11 @@
         <v>15010002</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>20</v>
@@ -6284,11 +6360,11 @@
         <v>15010003</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>20</v>
@@ -6315,10 +6391,10 @@
         <v>15011001</v>
       </c>
       <c r="C246" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E246" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F246" t="s">
         <v>20</v>
@@ -6336,10 +6412,10 @@
         <v>15011002</v>
       </c>
       <c r="C247" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E247" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F247" t="s">
         <v>20</v>
@@ -6357,10 +6433,10 @@
         <v>15011003</v>
       </c>
       <c r="C248" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E248" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F248" t="s">
         <v>20</v>
@@ -6378,10 +6454,10 @@
         <v>15011004</v>
       </c>
       <c r="C249" t="s">
+        <v>233</v>
+      </c>
+      <c r="E249" t="s">
         <v>230</v>
-      </c>
-      <c r="E249" t="s">
-        <v>227</v>
       </c>
       <c r="F249" t="s">
         <v>20</v>
@@ -6399,10 +6475,10 @@
         <v>15011021</v>
       </c>
       <c r="C251" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E251" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F251" t="s">
         <v>20</v>
@@ -6423,10 +6499,10 @@
         <v>15011030</v>
       </c>
       <c r="C253" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E253" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F253" t="s">
         <v>20</v>
@@ -6444,10 +6520,10 @@
         <v>15011031</v>
       </c>
       <c r="C254" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E254" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F254" t="s">
         <v>20</v>
@@ -6465,10 +6541,10 @@
         <v>15011032</v>
       </c>
       <c r="C255" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E255" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F255" t="s">
         <v>20</v>
@@ -6486,10 +6562,10 @@
         <v>15011033</v>
       </c>
       <c r="C256" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E256" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F256" t="s">
         <v>20</v>
@@ -6507,10 +6583,10 @@
         <v>15011034</v>
       </c>
       <c r="C257" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E257" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F257" t="s">
         <v>20</v>
@@ -6537,10 +6613,10 @@
         <v>15012001</v>
       </c>
       <c r="C261" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E261" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F261" t="s">
         <v>20</v>
@@ -6558,10 +6634,10 @@
         <v>15013001</v>
       </c>
       <c r="C264" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E264" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
@@ -6570,6 +6646,86 @@
         <v>6</v>
       </c>
       <c r="H264" s="5"/>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>15014001</v>
+      </c>
+      <c r="C267" t="s">
+        <v>242</v>
+      </c>
+      <c r="E267" t="s">
+        <v>243</v>
+      </c>
+      <c r="F267" t="s">
+        <v>244</v>
+      </c>
+      <c r="G267">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>15015001</v>
+      </c>
+      <c r="C270" t="s">
+        <v>245</v>
+      </c>
+      <c r="E270" t="s">
+        <v>246</v>
+      </c>
+      <c r="F270" t="s">
+        <v>247</v>
+      </c>
+      <c r="G270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>15015100</v>
+      </c>
+      <c r="C272" t="s">
+        <v>248</v>
+      </c>
+      <c r="E272" t="s">
+        <v>246</v>
+      </c>
+      <c r="F272" t="s">
+        <v>247</v>
+      </c>
+      <c r="G272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>15015101</v>
+      </c>
+      <c r="C273" t="s">
+        <v>249</v>
+      </c>
+      <c r="E273" t="s">
+        <v>246</v>
+      </c>
+      <c r="F273" t="s">
+        <v>247</v>
+      </c>
+      <c r="G273">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6585,7 +6741,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6602,7 +6758,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -11,7 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="255">
   <si>
     <t>#</t>
   </si>
@@ -573,6 +586,21 @@
   </si>
   <si>
     <t>img_skill_005</t>
+  </si>
+  <si>
+    <t>item0</t>
+  </si>
+  <si>
+    <t>道具图标</t>
+  </si>
+  <si>
+    <t>Atlas/Common/Item</t>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>item2</t>
   </si>
   <si>
     <t>bg_01</t>
@@ -809,7 +837,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -969,12 +997,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1803,10 +1831,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="G272" sqref="G272"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5217,52 +5245,20 @@
       <c r="G179" s="2"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" ht="15" customHeight="1" spans="1:8">
-      <c r="A180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180">
-        <v>15005000</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G180" s="2">
-        <v>2</v>
-      </c>
+    <row r="180" ht="15" customHeight="1" spans="3:8">
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" ht="15" customHeight="1" spans="1:8">
-      <c r="A181" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181">
-        <v>15005001</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G181" s="2">
-        <v>2</v>
-      </c>
+    <row r="181" ht="15" customHeight="1" spans="3:8">
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
       <c r="H181" s="5"/>
     </row>
     <row r="182" ht="15" customHeight="1" spans="1:8">
@@ -5270,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="B182">
-        <v>15005002</v>
+        <v>15004001</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>174</v>
@@ -5294,10 +5290,10 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>15005003</v>
+        <v>15004002</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>174</v>
@@ -5313,12 +5309,28 @@
       </c>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" ht="15" customHeight="1" spans="3:8">
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
+    <row r="184" ht="15" customHeight="1" spans="1:8">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>15004003</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G184" s="2">
+        <v>2</v>
+      </c>
       <c r="H184" s="5"/>
     </row>
     <row r="185" ht="15" customHeight="1" spans="3:8">
@@ -5337,187 +5349,156 @@
       <c r="G186" s="2"/>
       <c r="H186" s="5"/>
     </row>
-    <row r="187" ht="17" customHeight="1" spans="1:8">
-      <c r="A187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187">
-        <v>15006001</v>
-      </c>
-      <c r="C187" s="2" t="s">
+    <row r="187" ht="15" customHeight="1" spans="3:8">
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" ht="15" customHeight="1" spans="3:8">
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="5"/>
+    </row>
+    <row r="189" ht="15" customHeight="1" spans="3:8">
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" ht="15" customHeight="1" spans="3:8">
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" ht="15" customHeight="1" spans="1:8">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>15005000</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2" t="s">
+      <c r="E191" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="F191" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G191" s="2">
+        <v>2</v>
+      </c>
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" ht="15" customHeight="1" spans="1:8">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>15005001</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G187" s="2">
-        <v>3</v>
-      </c>
-      <c r="H187" s="5"/>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188">
-        <v>15006002</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="D192" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G192" s="2">
+        <v>2</v>
+      </c>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" ht="15" customHeight="1" spans="1:8">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>15005002</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E188" t="s">
+      <c r="D193" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G193" s="2">
+        <v>2</v>
+      </c>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" ht="15" customHeight="1" spans="1:8">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>15005003</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F188" t="s">
-        <v>184</v>
-      </c>
-      <c r="G188">
-        <v>3</v>
-      </c>
-      <c r="H188" s="5"/>
-    </row>
-    <row r="189" ht="17" customHeight="1" spans="1:8">
-      <c r="A189" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189">
-        <v>15006003</v>
-      </c>
-      <c r="C189" t="s">
-        <v>185</v>
-      </c>
-      <c r="E189" t="s">
-        <v>183</v>
-      </c>
-      <c r="F189" t="s">
-        <v>184</v>
-      </c>
-      <c r="G189">
-        <v>3</v>
-      </c>
-      <c r="H189" s="5"/>
-    </row>
-    <row r="190" ht="17" customHeight="1" spans="1:8">
-      <c r="A190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190">
-        <v>15006004</v>
-      </c>
-      <c r="C190" t="s">
-        <v>186</v>
-      </c>
-      <c r="E190" t="s">
-        <v>183</v>
-      </c>
-      <c r="F190" t="s">
-        <v>184</v>
-      </c>
-      <c r="G190">
-        <v>3</v>
-      </c>
-      <c r="H190" s="5"/>
-    </row>
-    <row r="191" ht="17" customHeight="1" spans="3:8">
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="5"/>
-    </row>
-    <row r="192" ht="17" customHeight="1" spans="3:8">
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="5"/>
-    </row>
-    <row r="193" ht="17" customHeight="1" spans="3:8">
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="5"/>
-    </row>
-    <row r="194" ht="17" customHeight="1" spans="3:8">
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
+      <c r="D194" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G194" s="2">
+        <v>2</v>
+      </c>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" ht="17" customHeight="1" spans="1:8">
-      <c r="A195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195">
-        <v>15008001</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>187</v>
-      </c>
+    <row r="195" ht="15" customHeight="1" spans="3:8">
+      <c r="C195" s="2"/>
       <c r="D195" s="2"/>
-      <c r="E195" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" s="2">
-        <v>4</v>
-      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" ht="17" customHeight="1" spans="1:8">
-      <c r="A196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196">
-        <v>15008002</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>189</v>
-      </c>
+    <row r="196" ht="15" customHeight="1" spans="3:8">
+      <c r="C196" s="2"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" s="2">
-        <v>4</v>
-      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" ht="17" customHeight="1" spans="1:8">
-      <c r="A197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197">
-        <v>15008003</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>190</v>
-      </c>
+    <row r="197" ht="15" customHeight="1" spans="3:8">
+      <c r="C197" s="2"/>
       <c r="D197" s="2"/>
-      <c r="E197" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" s="2">
-        <v>4</v>
-      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
       <c r="H197" s="5"/>
     </row>
     <row r="198" ht="17" customHeight="1" spans="1:8">
@@ -5525,42 +5506,41 @@
         <v>0</v>
       </c>
       <c r="B198">
-        <v>15008004</v>
+        <v>15006001</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G198" s="2">
+        <v>3</v>
+      </c>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>15006002</v>
+      </c>
+      <c r="C199" t="s">
+        <v>187</v>
+      </c>
+      <c r="E199" t="s">
         <v>188</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" s="2">
-        <v>4</v>
-      </c>
-      <c r="H198" s="5"/>
-    </row>
-    <row r="199" ht="17" customHeight="1" spans="1:8">
-      <c r="A199" t="s">
-        <v>0</v>
-      </c>
-      <c r="B199">
-        <v>15008005</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" s="2">
-        <v>4</v>
+      <c r="F199" t="s">
+        <v>189</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
       </c>
       <c r="H199" s="5"/>
     </row>
@@ -5569,20 +5549,19 @@
         <v>0</v>
       </c>
       <c r="B200">
-        <v>15008006</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2" t="s">
+        <v>15006003</v>
+      </c>
+      <c r="C200" t="s">
+        <v>190</v>
+      </c>
+      <c r="E200" t="s">
         <v>188</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" s="2">
-        <v>4</v>
+      <c r="F200" t="s">
+        <v>189</v>
+      </c>
+      <c r="G200">
+        <v>3</v>
       </c>
       <c r="H200" s="5"/>
     </row>
@@ -5591,109 +5570,52 @@
         <v>0</v>
       </c>
       <c r="B201">
-        <v>15008007</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2" t="s">
+        <v>15006004</v>
+      </c>
+      <c r="C201" t="s">
+        <v>191</v>
+      </c>
+      <c r="E201" t="s">
         <v>188</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" s="2">
-        <v>4</v>
+      <c r="F201" t="s">
+        <v>189</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
       </c>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" ht="17" customHeight="1" spans="1:8">
-      <c r="A202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202">
-        <v>15008008</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>195</v>
-      </c>
+    <row r="202" ht="17" customHeight="1" spans="3:8">
+      <c r="C202" s="2"/>
       <c r="D202" s="2"/>
-      <c r="E202" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" s="2">
-        <v>4</v>
-      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
       <c r="H202" s="5"/>
     </row>
-    <row r="203" ht="17" customHeight="1" spans="1:8">
-      <c r="A203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203">
-        <v>15008009</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>196</v>
-      </c>
+    <row r="203" ht="17" customHeight="1" spans="3:8">
+      <c r="C203" s="2"/>
       <c r="D203" s="2"/>
-      <c r="E203" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G203" s="2">
-        <v>4</v>
-      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" ht="17" customHeight="1" spans="1:8">
-      <c r="A204" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204">
-        <v>15008010</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>197</v>
-      </c>
+    <row r="204" ht="17" customHeight="1" spans="3:8">
+      <c r="C204" s="2"/>
       <c r="D204" s="2"/>
-      <c r="E204" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" s="2">
-        <v>4</v>
-      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
       <c r="H204" s="5"/>
     </row>
-    <row r="205" ht="17" customHeight="1" spans="1:8">
-      <c r="A205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205">
-        <v>15008011</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>198</v>
-      </c>
+    <row r="205" ht="17" customHeight="1" spans="3:8">
+      <c r="C205" s="2"/>
       <c r="D205" s="2"/>
-      <c r="E205" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" s="2">
-        <v>4</v>
-      </c>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
       <c r="H205" s="5"/>
     </row>
     <row r="206" ht="17" customHeight="1" spans="1:8">
@@ -5701,14 +5623,14 @@
         <v>0</v>
       </c>
       <c r="B206">
-        <v>15008012</v>
+        <v>15008001</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>20</v>
@@ -5723,14 +5645,14 @@
         <v>0</v>
       </c>
       <c r="B207">
-        <v>15008013</v>
+        <v>15008002</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>20</v>
@@ -5745,14 +5667,14 @@
         <v>0</v>
       </c>
       <c r="B208">
-        <v>15008014</v>
+        <v>15008003</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>20</v>
@@ -5767,14 +5689,14 @@
         <v>0</v>
       </c>
       <c r="B209">
-        <v>15008015</v>
+        <v>15008004</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>20</v>
@@ -5789,14 +5711,14 @@
         <v>0</v>
       </c>
       <c r="B210">
-        <v>15008016</v>
+        <v>15008005</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>20</v>
@@ -5811,14 +5733,14 @@
         <v>0</v>
       </c>
       <c r="B211">
-        <v>15008017</v>
+        <v>15008006</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>20</v>
@@ -5833,14 +5755,14 @@
         <v>0</v>
       </c>
       <c r="B212">
-        <v>15008018</v>
+        <v>15008007</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>20</v>
@@ -5855,14 +5777,14 @@
         <v>0</v>
       </c>
       <c r="B213">
-        <v>15008019</v>
+        <v>15008008</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>20</v>
@@ -5877,14 +5799,14 @@
         <v>0</v>
       </c>
       <c r="B214">
-        <v>15008020</v>
+        <v>15008009</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>20</v>
@@ -5899,14 +5821,14 @@
         <v>0</v>
       </c>
       <c r="B215">
-        <v>15008021</v>
+        <v>15008010</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>20</v>
@@ -5921,14 +5843,14 @@
         <v>0</v>
       </c>
       <c r="B216">
-        <v>15008022</v>
+        <v>15008011</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>20</v>
@@ -5943,14 +5865,14 @@
         <v>0</v>
       </c>
       <c r="B217">
-        <v>15008023</v>
+        <v>15008012</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>20</v>
@@ -5965,14 +5887,14 @@
         <v>0</v>
       </c>
       <c r="B218">
-        <v>15008024</v>
+        <v>15008013</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>20</v>
@@ -5987,14 +5909,14 @@
         <v>0</v>
       </c>
       <c r="B219">
-        <v>15008025</v>
+        <v>15008014</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>20</v>
@@ -6009,14 +5931,14 @@
         <v>0</v>
       </c>
       <c r="B220">
-        <v>15008026</v>
+        <v>15008015</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>20</v>
@@ -6031,16 +5953,14 @@
         <v>0</v>
       </c>
       <c r="B221">
-        <v>15008027</v>
+        <v>15008016</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D221" s="2"/>
       <c r="E221" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>20</v>
@@ -6055,16 +5975,14 @@
         <v>0</v>
       </c>
       <c r="B222">
-        <v>15008028</v>
+        <v>15008017</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>20</v>
@@ -6079,14 +5997,14 @@
         <v>0</v>
       </c>
       <c r="B223">
-        <v>15008029</v>
+        <v>15008018</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>20</v>
@@ -6101,14 +6019,14 @@
         <v>0</v>
       </c>
       <c r="B224">
-        <v>15008030</v>
+        <v>15008019</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>20</v>
@@ -6123,14 +6041,14 @@
         <v>0</v>
       </c>
       <c r="B225">
-        <v>15008031</v>
+        <v>15008020</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>20</v>
@@ -6140,20 +6058,48 @@
       </c>
       <c r="H225" s="5"/>
     </row>
-    <row r="226" ht="17" customHeight="1" spans="3:8">
-      <c r="C226" s="2"/>
+    <row r="226" ht="17" customHeight="1" spans="1:8">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>15008021</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
+      <c r="E226" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G226" s="2">
+        <v>4</v>
+      </c>
       <c r="H226" s="5"/>
     </row>
-    <row r="227" ht="17" customHeight="1" spans="3:8">
-      <c r="C227" s="2"/>
+    <row r="227" ht="17" customHeight="1" spans="1:8">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>15008022</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
+      <c r="E227" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G227" s="2">
+        <v>4</v>
+      </c>
       <c r="H227" s="5"/>
     </row>
     <row r="228" ht="17" customHeight="1" spans="1:8">
@@ -6161,14 +6107,14 @@
         <v>0</v>
       </c>
       <c r="B228">
-        <v>15008101</v>
+        <v>15008023</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>20</v>
@@ -6183,14 +6129,14 @@
         <v>0</v>
       </c>
       <c r="B229">
-        <v>15008102</v>
+        <v>15008024</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>20</v>
@@ -6200,12 +6146,26 @@
       </c>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" ht="17" customHeight="1" spans="3:8">
-      <c r="C230" s="2"/>
+    <row r="230" ht="17" customHeight="1" spans="1:8">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>15008025</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
+      <c r="E230" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G230" s="2">
+        <v>4</v>
+      </c>
       <c r="H230" s="5"/>
     </row>
     <row r="231" ht="17" customHeight="1" spans="1:8">
@@ -6213,14 +6173,14 @@
         <v>0</v>
       </c>
       <c r="B231">
-        <v>15008201</v>
+        <v>15008026</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>20</v>
@@ -6235,14 +6195,16 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>15008202</v>
+        <v>15008027</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D232" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="E232" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>20</v>
@@ -6252,36 +6214,94 @@
       </c>
       <c r="H232" s="5"/>
     </row>
-    <row r="233" ht="17" customHeight="1" spans="3:8">
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
+    <row r="233" ht="17" customHeight="1" spans="1:8">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233">
+        <v>15008028</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G233" s="2">
+        <v>4</v>
+      </c>
       <c r="H233" s="5"/>
     </row>
-    <row r="234" ht="17" customHeight="1" spans="3:8">
-      <c r="C234" s="2"/>
+    <row r="234" ht="17" customHeight="1" spans="1:8">
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234">
+        <v>15008029</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
+      <c r="E234" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G234" s="2">
+        <v>4</v>
+      </c>
       <c r="H234" s="5"/>
     </row>
-    <row r="235" ht="17" customHeight="1" spans="3:8">
-      <c r="C235" s="2"/>
+    <row r="235" ht="17" customHeight="1" spans="1:8">
+      <c r="A235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>15008030</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
+      <c r="E235" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G235" s="2">
+        <v>4</v>
+      </c>
       <c r="H235" s="5"/>
     </row>
-    <row r="236" ht="17" customHeight="1" spans="3:8">
-      <c r="C236" s="2"/>
+    <row r="236" ht="17" customHeight="1" spans="1:8">
+      <c r="A236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>15008031</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
+      <c r="E236" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G236" s="2">
+        <v>4</v>
+      </c>
       <c r="H236" s="5"/>
     </row>
     <row r="237" ht="17" customHeight="1" spans="3:8">
@@ -6300,12 +6320,26 @@
       <c r="G238" s="2"/>
       <c r="H238" s="5"/>
     </row>
-    <row r="239" ht="17" customHeight="1" spans="3:8">
-      <c r="C239" s="2"/>
+    <row r="239" ht="17" customHeight="1" spans="1:8">
+      <c r="A239" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>15008101</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
+      <c r="E239" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G239" s="2">
+        <v>4</v>
+      </c>
       <c r="H239" s="5"/>
     </row>
     <row r="240" ht="17" customHeight="1" spans="1:8">
@@ -6313,43 +6347,29 @@
         <v>0</v>
       </c>
       <c r="B240">
-        <v>15010001</v>
+        <v>15008102</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G240" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H240" s="5"/>
     </row>
-    <row r="241" ht="17" customHeight="1" spans="1:8">
-      <c r="A241" t="s">
-        <v>0</v>
-      </c>
-      <c r="B241">
-        <v>15010002</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>227</v>
-      </c>
+    <row r="241" ht="17" customHeight="1" spans="3:8">
+      <c r="C241" s="2"/>
       <c r="D241" s="2"/>
-      <c r="E241" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G241" s="2">
-        <v>5</v>
-      </c>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
       <c r="H241" s="5"/>
     </row>
     <row r="242" ht="17" customHeight="1" spans="1:8">
@@ -6357,222 +6377,174 @@
         <v>0</v>
       </c>
       <c r="B242">
-        <v>15010003</v>
+        <v>15008201</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G242" s="2">
+        <v>4</v>
+      </c>
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" ht="17" customHeight="1" spans="1:8">
+      <c r="A243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>15008202</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G243" s="2">
+        <v>4</v>
+      </c>
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" ht="17" customHeight="1" spans="3:8">
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" ht="17" customHeight="1" spans="3:8">
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="5"/>
+    </row>
+    <row r="246" ht="17" customHeight="1" spans="3:8">
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="5"/>
+    </row>
+    <row r="247" ht="17" customHeight="1" spans="3:8">
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="5"/>
+    </row>
+    <row r="248" ht="17" customHeight="1" spans="3:8">
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="5"/>
+    </row>
+    <row r="249" ht="17" customHeight="1" spans="3:8">
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="5"/>
+    </row>
+    <row r="250" ht="17" customHeight="1" spans="3:8">
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="5"/>
+    </row>
+    <row r="251" ht="17" customHeight="1" spans="1:8">
+      <c r="A251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251">
+        <v>15010001</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G251" s="2">
         <v>5</v>
       </c>
-      <c r="H242" s="5"/>
-    </row>
-    <row r="243" spans="8:8">
-      <c r="H243" s="5"/>
-    </row>
-    <row r="244" spans="8:8">
-      <c r="H244" s="5"/>
-    </row>
-    <row r="245" spans="8:8">
-      <c r="H245" s="5"/>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
-        <v>0</v>
-      </c>
-      <c r="B246">
-        <v>15011001</v>
-      </c>
-      <c r="C246" t="s">
-        <v>229</v>
-      </c>
-      <c r="E246" t="s">
-        <v>230</v>
-      </c>
-      <c r="F246" t="s">
+      <c r="H251" s="5"/>
+    </row>
+    <row r="252" ht="17" customHeight="1" spans="1:8">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>15010002</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F252" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G246">
-        <v>6</v>
-      </c>
-      <c r="H246" s="5"/>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B247">
-        <v>15011002</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="G252" s="2">
+        <v>5</v>
+      </c>
+      <c r="H252" s="5"/>
+    </row>
+    <row r="253" ht="17" customHeight="1" spans="1:8">
+      <c r="A253" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>15010003</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E247" t="s">
-        <v>230</v>
-      </c>
-      <c r="F247" t="s">
+      <c r="F253" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G247">
-        <v>6</v>
-      </c>
-      <c r="H247" s="5"/>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>0</v>
-      </c>
-      <c r="B248">
-        <v>15011003</v>
-      </c>
-      <c r="C248" t="s">
-        <v>232</v>
-      </c>
-      <c r="E248" t="s">
-        <v>230</v>
-      </c>
-      <c r="F248" t="s">
-        <v>20</v>
-      </c>
-      <c r="G248">
-        <v>6</v>
-      </c>
-      <c r="H248" s="5"/>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" t="s">
-        <v>0</v>
-      </c>
-      <c r="B249">
-        <v>15011004</v>
-      </c>
-      <c r="C249" t="s">
-        <v>233</v>
-      </c>
-      <c r="E249" t="s">
-        <v>230</v>
-      </c>
-      <c r="F249" t="s">
-        <v>20</v>
-      </c>
-      <c r="G249">
-        <v>6</v>
-      </c>
-      <c r="H249" s="5"/>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" t="s">
-        <v>0</v>
-      </c>
-      <c r="B251">
-        <v>15011021</v>
-      </c>
-      <c r="C251" t="s">
-        <v>234</v>
-      </c>
-      <c r="E251" t="s">
-        <v>230</v>
-      </c>
-      <c r="F251" t="s">
-        <v>20</v>
-      </c>
-      <c r="G251">
-        <v>6</v>
-      </c>
-      <c r="H251" s="5"/>
-    </row>
-    <row r="252" spans="8:8">
-      <c r="H252" s="5"/>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" t="s">
-        <v>0</v>
-      </c>
-      <c r="B253">
-        <v>15011030</v>
-      </c>
-      <c r="C253" t="s">
-        <v>235</v>
-      </c>
-      <c r="E253" t="s">
-        <v>230</v>
-      </c>
-      <c r="F253" t="s">
-        <v>20</v>
-      </c>
-      <c r="G253">
-        <v>6</v>
+      <c r="G253" s="2">
+        <v>5</v>
       </c>
       <c r="H253" s="5"/>
     </row>
-    <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254">
-        <v>15011031</v>
-      </c>
-      <c r="C254" t="s">
-        <v>236</v>
-      </c>
-      <c r="E254" t="s">
-        <v>230</v>
-      </c>
-      <c r="F254" t="s">
-        <v>20</v>
-      </c>
-      <c r="G254">
-        <v>6</v>
-      </c>
+    <row r="254" spans="8:8">
       <c r="H254" s="5"/>
     </row>
-    <row r="255" spans="1:8">
-      <c r="A255" t="s">
-        <v>0</v>
-      </c>
-      <c r="B255">
-        <v>15011032</v>
-      </c>
-      <c r="C255" t="s">
-        <v>237</v>
-      </c>
-      <c r="E255" t="s">
-        <v>230</v>
-      </c>
-      <c r="F255" t="s">
-        <v>20</v>
-      </c>
-      <c r="G255">
-        <v>6</v>
-      </c>
+    <row r="255" spans="8:8">
       <c r="H255" s="5"/>
     </row>
-    <row r="256" spans="1:8">
-      <c r="A256" t="s">
-        <v>0</v>
-      </c>
-      <c r="B256">
-        <v>15011033</v>
-      </c>
-      <c r="C256" t="s">
-        <v>238</v>
-      </c>
-      <c r="E256" t="s">
-        <v>230</v>
-      </c>
-      <c r="F256" t="s">
-        <v>20</v>
-      </c>
-      <c r="G256">
-        <v>6</v>
-      </c>
+    <row r="256" spans="8:8">
       <c r="H256" s="5"/>
     </row>
     <row r="257" spans="1:8">
@@ -6580,13 +6552,13 @@
         <v>0</v>
       </c>
       <c r="B257">
-        <v>15011034</v>
+        <v>15011001</v>
       </c>
       <c r="C257" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E257" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F257" t="s">
         <v>20</v>
@@ -6596,48 +6568,105 @@
       </c>
       <c r="H257" s="5"/>
     </row>
-    <row r="258" spans="8:8">
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>15011002</v>
+      </c>
+      <c r="C258" t="s">
+        <v>236</v>
+      </c>
+      <c r="E258" t="s">
+        <v>235</v>
+      </c>
+      <c r="F258" t="s">
+        <v>20</v>
+      </c>
+      <c r="G258">
+        <v>6</v>
+      </c>
       <c r="H258" s="5"/>
     </row>
-    <row r="259" spans="8:8">
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>15011003</v>
+      </c>
+      <c r="C259" t="s">
+        <v>237</v>
+      </c>
+      <c r="E259" t="s">
+        <v>235</v>
+      </c>
+      <c r="F259" t="s">
+        <v>20</v>
+      </c>
+      <c r="G259">
+        <v>6</v>
+      </c>
       <c r="H259" s="5"/>
     </row>
-    <row r="260" spans="8:8">
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>15011004</v>
+      </c>
+      <c r="C260" t="s">
+        <v>238</v>
+      </c>
+      <c r="E260" t="s">
+        <v>235</v>
+      </c>
+      <c r="F260" t="s">
+        <v>20</v>
+      </c>
+      <c r="G260">
+        <v>6</v>
+      </c>
       <c r="H260" s="5"/>
     </row>
-    <row r="261" spans="1:8">
-      <c r="A261" t="s">
-        <v>0</v>
-      </c>
-      <c r="B261">
-        <v>15012001</v>
-      </c>
-      <c r="C261" t="s">
-        <v>240</v>
-      </c>
-      <c r="E261" t="s">
-        <v>230</v>
-      </c>
-      <c r="F261" t="s">
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>15011021</v>
+      </c>
+      <c r="C262" t="s">
+        <v>239</v>
+      </c>
+      <c r="E262" t="s">
+        <v>235</v>
+      </c>
+      <c r="F262" t="s">
         <v>20</v>
       </c>
-      <c r="G261">
+      <c r="G262">
         <v>6</v>
       </c>
-      <c r="H261" s="5"/>
+      <c r="H262" s="5"/>
+    </row>
+    <row r="263" spans="8:8">
+      <c r="H263" s="5"/>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>0</v>
       </c>
       <c r="B264">
-        <v>15013001</v>
+        <v>15011030</v>
       </c>
       <c r="C264" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E264" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
@@ -6647,83 +6676,218 @@
       </c>
       <c r="H264" s="5"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>15011031</v>
+      </c>
+      <c r="C265" t="s">
+        <v>241</v>
+      </c>
+      <c r="E265" t="s">
+        <v>235</v>
+      </c>
+      <c r="F265" t="s">
+        <v>20</v>
+      </c>
+      <c r="G265">
+        <v>6</v>
+      </c>
+      <c r="H265" s="5"/>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>15011032</v>
+      </c>
+      <c r="C266" t="s">
+        <v>242</v>
+      </c>
+      <c r="E266" t="s">
+        <v>235</v>
+      </c>
+      <c r="F266" t="s">
+        <v>20</v>
+      </c>
+      <c r="G266">
+        <v>6</v>
+      </c>
+      <c r="H266" s="5"/>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>0</v>
       </c>
       <c r="B267">
+        <v>15011033</v>
+      </c>
+      <c r="C267" t="s">
+        <v>243</v>
+      </c>
+      <c r="E267" t="s">
+        <v>235</v>
+      </c>
+      <c r="F267" t="s">
+        <v>20</v>
+      </c>
+      <c r="G267">
+        <v>6</v>
+      </c>
+      <c r="H267" s="5"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>15011034</v>
+      </c>
+      <c r="C268" t="s">
+        <v>244</v>
+      </c>
+      <c r="E268" t="s">
+        <v>235</v>
+      </c>
+      <c r="F268" t="s">
+        <v>20</v>
+      </c>
+      <c r="G268">
+        <v>6</v>
+      </c>
+      <c r="H268" s="5"/>
+    </row>
+    <row r="269" spans="8:8">
+      <c r="H269" s="5"/>
+    </row>
+    <row r="270" spans="8:8">
+      <c r="H270" s="5"/>
+    </row>
+    <row r="271" spans="8:8">
+      <c r="H271" s="5"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>15012001</v>
+      </c>
+      <c r="C272" t="s">
+        <v>245</v>
+      </c>
+      <c r="E272" t="s">
+        <v>235</v>
+      </c>
+      <c r="F272" t="s">
+        <v>20</v>
+      </c>
+      <c r="G272">
+        <v>6</v>
+      </c>
+      <c r="H272" s="5"/>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>15013001</v>
+      </c>
+      <c r="C275" t="s">
+        <v>246</v>
+      </c>
+      <c r="E275" t="s">
+        <v>235</v>
+      </c>
+      <c r="F275" t="s">
+        <v>20</v>
+      </c>
+      <c r="G275">
+        <v>6</v>
+      </c>
+      <c r="H275" s="5"/>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278">
         <v>15014001</v>
       </c>
-      <c r="C267" t="s">
-        <v>242</v>
-      </c>
-      <c r="E267" t="s">
-        <v>243</v>
-      </c>
-      <c r="F267" t="s">
-        <v>244</v>
-      </c>
-      <c r="G267">
+      <c r="C278" t="s">
+        <v>247</v>
+      </c>
+      <c r="E278" t="s">
+        <v>248</v>
+      </c>
+      <c r="F278" t="s">
+        <v>249</v>
+      </c>
+      <c r="G278">
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
-      <c r="A270" t="s">
-        <v>0</v>
-      </c>
-      <c r="B270">
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281">
         <v>15015001</v>
       </c>
-      <c r="C270" t="s">
-        <v>245</v>
-      </c>
-      <c r="E270" t="s">
-        <v>246</v>
-      </c>
-      <c r="F270" t="s">
-        <v>247</v>
-      </c>
-      <c r="G270">
+      <c r="C281" t="s">
+        <v>250</v>
+      </c>
+      <c r="E281" t="s">
+        <v>251</v>
+      </c>
+      <c r="F281" t="s">
+        <v>252</v>
+      </c>
+      <c r="G281">
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
-      <c r="A272" t="s">
-        <v>0</v>
-      </c>
-      <c r="B272">
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283">
         <v>15015100</v>
       </c>
-      <c r="C272" t="s">
-        <v>248</v>
-      </c>
-      <c r="E272" t="s">
-        <v>246</v>
-      </c>
-      <c r="F272" t="s">
-        <v>247</v>
-      </c>
-      <c r="G272">
+      <c r="C283" t="s">
+        <v>253</v>
+      </c>
+      <c r="E283" t="s">
+        <v>251</v>
+      </c>
+      <c r="F283" t="s">
+        <v>252</v>
+      </c>
+      <c r="G283">
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
-      <c r="A273" t="s">
-        <v>0</v>
-      </c>
-      <c r="B273">
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284">
         <v>15015101</v>
       </c>
-      <c r="C273" t="s">
-        <v>249</v>
-      </c>
-      <c r="E273" t="s">
-        <v>246</v>
-      </c>
-      <c r="F273" t="s">
-        <v>247</v>
-      </c>
-      <c r="G273">
+      <c r="C284" t="s">
+        <v>254</v>
+      </c>
+      <c r="E284" t="s">
+        <v>251</v>
+      </c>
+      <c r="F284" t="s">
+        <v>252</v>
+      </c>
+      <c r="G284">
         <v>5</v>
       </c>
     </row>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="14220" windowHeight="10710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="256">
   <si>
     <t>#</t>
   </si>
@@ -126,7 +126,7 @@
     <t>LoginUI</t>
   </si>
   <si>
-    <t>Prefabs/UI</t>
+    <t>UI/Prefabs</t>
   </si>
   <si>
     <t>prefab</t>
@@ -186,7 +186,7 @@
     <t>icon_money</t>
   </si>
   <si>
-    <t>Atlas\Common\Item</t>
+    <t>UI/Atlas\Common\Item</t>
   </si>
   <si>
     <t>cursor_001</t>
@@ -213,7 +213,7 @@
     <t>通用 buff</t>
   </si>
   <si>
-    <t>Atlas/Common/Buff</t>
+    <t>UI/Atlas/Common/Buff</t>
   </si>
   <si>
     <t>icon_buff_common_02</t>
@@ -483,7 +483,7 @@
     <t>头像</t>
   </si>
   <si>
-    <t>Atlas/Common/RoleAvatar</t>
+    <t>UI/Atlas/Common/RoleAvatar</t>
   </si>
   <si>
     <t>img_avatar_002</t>
@@ -516,7 +516,7 @@
     <t>英雄全身像</t>
   </si>
   <si>
-    <t>Atlas/Common/HeroAllBody</t>
+    <t>UI/Atlas/Common/HeroAllBody</t>
   </si>
   <si>
     <t>img_all_body_002</t>
@@ -534,7 +534,7 @@
     <t>攻击属性图标</t>
   </si>
   <si>
-    <t>Atlas/Common/Attr</t>
+    <t>UI/Atlas/Common/Attr</t>
   </si>
   <si>
     <t>img_attr_defend</t>
@@ -573,7 +573,7 @@
     <t>技能图标</t>
   </si>
   <si>
-    <t>Atlas/Common/SkillIcon</t>
+    <t>UI/Atlas/Common/SkillIcon</t>
   </si>
   <si>
     <t>img_skill_002</t>
@@ -594,7 +594,7 @@
     <t>道具图标</t>
   </si>
   <si>
-    <t>Atlas/Common/Item</t>
+    <t>UI/Atlas/Common/Item</t>
   </si>
   <si>
     <t>item1</t>
@@ -609,7 +609,7 @@
     <t>背景</t>
   </si>
   <si>
-    <t>Atlas/BG</t>
+    <t>UI/Atlas/BG</t>
   </si>
   <si>
     <t>bg_02</t>
@@ -648,7 +648,7 @@
     <t>eft_select_entity_01</t>
   </si>
   <si>
-    <t>Prefabs/Effects</t>
+    <t>Effects/Prefabs</t>
   </si>
   <si>
     <t>eft_buff_fire_follow</t>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>role_001</t>
+  </si>
+  <si>
+    <t>Models/Role/Prefabs</t>
   </si>
   <si>
     <t>role_002</t>
@@ -1833,8 +1836,8 @@
   <sheetPr/>
   <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6666,7 +6669,7 @@
         <v>240</v>
       </c>
       <c r="E264" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F264" t="s">
         <v>20</v>
@@ -6684,10 +6687,10 @@
         <v>15011031</v>
       </c>
       <c r="C265" t="s">
+        <v>242</v>
+      </c>
+      <c r="E265" t="s">
         <v>241</v>
-      </c>
-      <c r="E265" t="s">
-        <v>235</v>
       </c>
       <c r="F265" t="s">
         <v>20</v>
@@ -6705,10 +6708,10 @@
         <v>15011032</v>
       </c>
       <c r="C266" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E266" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F266" t="s">
         <v>20</v>
@@ -6726,10 +6729,10 @@
         <v>15011033</v>
       </c>
       <c r="C267" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E267" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F267" t="s">
         <v>20</v>
@@ -6747,10 +6750,10 @@
         <v>15011034</v>
       </c>
       <c r="C268" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E268" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F268" t="s">
         <v>20</v>
@@ -6777,10 +6780,10 @@
         <v>15012001</v>
       </c>
       <c r="C272" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E272" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F272" t="s">
         <v>20</v>
@@ -6798,10 +6801,10 @@
         <v>15013001</v>
       </c>
       <c r="C275" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E275" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F275" t="s">
         <v>20</v>
@@ -6819,13 +6822,13 @@
         <v>15014001</v>
       </c>
       <c r="C278" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E278" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F278" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G278">
         <v>7</v>
@@ -6839,13 +6842,13 @@
         <v>15015001</v>
       </c>
       <c r="C281" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E281" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F281" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G281">
         <v>5</v>
@@ -6859,13 +6862,13 @@
         <v>15015100</v>
       </c>
       <c r="C283" t="s">
+        <v>254</v>
+      </c>
+      <c r="E283" t="s">
+        <v>252</v>
+      </c>
+      <c r="F283" t="s">
         <v>253</v>
-      </c>
-      <c r="E283" t="s">
-        <v>251</v>
-      </c>
-      <c r="F283" t="s">
-        <v>252</v>
       </c>
       <c r="G283">
         <v>5</v>
@@ -6879,13 +6882,13 @@
         <v>15015101</v>
       </c>
       <c r="C284" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E284" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F284" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G284">
         <v>5</v>

--- a/data_table/ResourceConfig.xlsx
+++ b/data_table/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14220" windowHeight="10710"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -822,7 +822,7 @@
     <t>shader</t>
   </si>
   <si>
-    <t>BattleScene_001</t>
+    <t>Battle_02_Desert</t>
   </si>
   <si>
     <t>Scenes</t>
@@ -1836,8 +1836,8 @@
   <sheetPr/>
   <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6908,7 +6908,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6925,7 +6925,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
